--- a/data/hotels_by_city/Houston/Houston_shard_337.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_337.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d1605019-Reviews-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Holiday-Inn-Express-Hotel-Suites-Katy.h2920092.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531275268116&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=25b5fbd1-5750-47c2-a3ed-6b399619925f&amp;mctc=9&amp;exp_dp=88.99&amp;exp_ts=1531275268707&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1363 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r561024171-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>1605019</t>
+  </si>
+  <si>
+    <t>561024171</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Great staff, great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just off I-10, but still quiet. Easy access to downtown Houston and regional sites. Great staff, good breakfast, very nice rooms. Lots of variety in nearby resturaunts (all within walking distance). Great parking, too. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r548273288-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>548273288</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right off I-10 in Katy, TX (Houston) very nice public park less than 1/3 mile away- nice area for a stroll. Close to shopping and restaurants. Wal-Mart nearby as well. Rooms are specious and clean- microwave, fridge and Keurig in rooms. Breakfast is good and staff is very friendly and helpful. Disclaimer- my nephew works for the parent company ofHoliday Inn so I took his suggestion to stay here but am receiving NO benefits! My first time at a Holiday Inn in 20 years and they met my expectations.  </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r531431515-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>531431515</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms and warm breakfast</t>
+  </si>
+  <si>
+    <t>Booked a corner room for the weekend and the room was cozy and clean. My husband and I really enjoyed the breakfast bar with warm, fresh food. The TV gets plenty of great channels and the bed was fairly comfy. Friendly staff that are very welcoming. The only complaint is a bit more expensive than other hotels in the area, though it might be that most of the average priced rooms were booked solid that weekend.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r513979872-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>513979872</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Needs Soundproofing</t>
+  </si>
+  <si>
+    <t>I was surprised to hear the neighbors across the hall from my room.  They were talking in a normal loud tone and their words carried through their door, across the hallway, through my door to me.  This is also on the 1-10 Freeway so you have that noise, also.  I was disappointed at the breakfast service as the coffee was empty twice.  In 25 minutes I was able to get one cup of coffee because people were running up when she brought out more.  I mentioned to the front desk attendant that coffee should never be empty...never.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>I was surprised to hear the neighbors across the hall from my room.  They were talking in a normal loud tone and their words carried through their door, across the hallway, through my door to me.  This is also on the 1-10 Freeway so you have that noise, also.  I was disappointed at the breakfast service as the coffee was empty twice.  In 25 minutes I was able to get one cup of coffee because people were running up when she brought out more.  I mentioned to the front desk attendant that coffee should never be empty...never.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r509621475-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>509621475</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>ok, nothing outstanding</t>
+  </si>
+  <si>
+    <t>We stayed there two nights for a quick shopping trip. The hotel seems dated but not bad looking. Rooms are decent size and beds were comfortable, bathroom was clean with little amenities.Only ate breakfast once and it was Ok, (nothing outstanding) pool and jacuzzi were small and crowded. I would stay here if I do not find other higher options and at a decent price. Front desk service was great and staff were attentive.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there two nights for a quick shopping trip. The hotel seems dated but not bad looking. Rooms are decent size and beds were comfortable, bathroom was clean with little amenities.Only ate breakfast once and it was Ok, (nothing outstanding) pool and jacuzzi were small and crowded. I would stay here if I do not find other higher options and at a decent price. Front desk service was great and staff were attentive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r502985399-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>502985399</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Seamless Check in. Clean room, lots of pillows, quiet, comfy room, acknowledged by name by front desk staff, pool, fitness area, good parking lot, friendly staff, great breakfast!!  My second time to stay here, will stay again!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r453215618-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>453215618</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Old rooms, mine both smelled bad.  Not the greatest internet.  Alot of noise from the highway nearby. Water was always pretty hot. Good front desk help. It was close to where I was working, so I would stay here again mostly because of the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Old rooms, mine both smelled bad.  Not the greatest internet.  Alot of noise from the highway nearby. Water was always pretty hot. Good front desk help. It was close to where I was working, so I would stay here again mostly because of the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r450021855-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>450021855</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>stayed here during xmas family visit.  i stay at hundreds of hotels a year - and many are Holiday Inn Express.  It is a good value, with standard rooms, and standard amenities.  It was almost empty - but the staff was good.  just wish IHG group would upgrade the free breakfast - it is just shamefulMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded January 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2017</t>
+  </si>
+  <si>
+    <t>stayed here during xmas family visit.  i stay at hundreds of hotels a year - and many are Holiday Inn Express.  It is a good value, with standard rooms, and standard amenities.  It was almost empty - but the staff was good.  just wish IHG group would upgrade the free breakfast - it is just shamefulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r425854035-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>425854035</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Non refundable reservations</t>
+  </si>
+  <si>
+    <t>We made a mistake and booked a room for about a week.  We discovered our error. We tried to book a room for the week before.  They were "overbooked".  They have refused to give us a refund even though we have stayed in Holiday Inns all over the US. I wonder if Katy Holiday Inn is unique?SincerelyMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>We made a mistake and booked a room for about a week.  We discovered our error. We tried to book a room for the week before.  They were "overbooked".  They have refused to give us a refund even though we have stayed in Holiday Inns all over the US. I wonder if Katy Holiday Inn is unique?SincerelyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r384241856-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>384241856</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Passing thru</t>
+  </si>
+  <si>
+    <t>Time to stop for the night and this was it.  Price wise in this area seemed very good, hotel well taken care of , breakfast bar pretty nice and stocked.  Room was comfortable and clean.  Just a good place to stay.  Did not have a lot of time to check out the rest of the place, got to get back on the road !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Time to stop for the night and this was it.  Price wise in this area seemed very good, hotel well taken care of , breakfast bar pretty nice and stocked.  Room was comfortable and clean.  Just a good place to stay.  Did not have a lot of time to check out the rest of the place, got to get back on the road !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r378468400-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>378468400</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>NO fax service &amp; Snake in Pool did I say  no Fax:(:(:( Good otherwise</t>
+  </si>
+  <si>
+    <t>The hotel is a very clean and well maintained property, with a mostly nice staff. That being said I was at the hotel for almost 2 weeks with NO fax service that I was in desperate need of due to my job. I tried to explain the true need to the manager who daily responded with it was the fault of AT&amp;T. A snake jumped into the pool with me VERY uninvited!! LOL... I am a dedicated IHG spire elite member and just didn't feel like the manager really cared about the needs of the guests as much as most IHG properties do. I did meet the owners daughter who did seem very caring but I was checking out at the next morning:(MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is a very clean and well maintained property, with a mostly nice staff. That being said I was at the hotel for almost 2 weeks with NO fax service that I was in desperate need of due to my job. I tried to explain the true need to the manager who daily responded with it was the fault of AT&amp;T. A snake jumped into the pool with me VERY uninvited!! LOL... I am a dedicated IHG spire elite member and just didn't feel like the manager really cared about the needs of the guests as much as most IHG properties do. I did meet the owners daughter who did seem very caring but I was checking out at the next morning:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r373540269-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>373540269</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel and I will stay here again. Room was very clean, lobby was spotless, and the staff was very friendly. Great breakfast choice everyday and lots of it.  Easy to get in and out of, plenty of parking and the parking was very well lit. Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel and I will stay here again. Room was very clean, lobby was spotless, and the staff was very friendly. Great breakfast choice everyday and lots of it.  Easy to get in and out of, plenty of parking and the parking was very well lit. Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r365520467-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>365520467</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>A Great Choice</t>
+  </si>
+  <si>
+    <t>I had booked this hotel for a business trip. As I arrived I found it very accessiable to the interstate as well as several different restaurants. Check in was fast and easy, and on top of that my room was upgrade do to my rewards status with IHG. I went upstairs to find my room clean and up to date. Breakfast was good and fresh (I can always tell by the condition of the fruit). I came back that second night to the horrible rains but had no worries. We did lose the Directv due to the weather but that wasn't their fault. If I return to Katy I will be booking at the same hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>I had booked this hotel for a business trip. As I arrived I found it very accessiable to the interstate as well as several different restaurants. Check in was fast and easy, and on top of that my room was upgrade do to my rewards status with IHG. I went upstairs to find my room clean and up to date. Breakfast was good and fresh (I can always tell by the condition of the fruit). I came back that second night to the horrible rains but had no worries. We did lose the Directv due to the weather but that wasn't their fault. If I return to Katy I will be booking at the same hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r361988360-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>361988360</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>We had a great stay here. We didn't make mistake to book a room at Holiday Inn. The room was comfortalbe and nice furnitures. Had a little noise. I enjoyed the breakfast with my favourite Coffee. There was nice swimming pool and we swimed for an hour. We took lunch nearby resturant. Howerver, the services are good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We had a great stay here. We didn't make mistake to book a room at Holiday Inn. The room was comfortalbe and nice furnitures. Had a little noise. I enjoyed the breakfast with my favourite Coffee. There was nice swimming pool and we swimed for an hour. We took lunch nearby resturant. Howerver, the services are good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r358583584-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>358583584</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Cold water and bad management</t>
+  </si>
+  <si>
+    <t>I don't normally look for exceptional luxury in an hotel, but prefer a good average place which is clean, with good service and breakfast. That's why I have often chosen the Holiday Inn Express chain. This time however I was very disappointed. The first room we were given was the smallest I have ever seen in the USA. I asked for a bigger one and was offered one, at a reasonable extra price. The troubles started on the second day, when suddenly there was no hot water. For the next two days we were told the same story, that there was people fixing it. So we decided to stay, rather than checking out, also because the room was pre-paid via hotels.com. But we never got back the hot water. At checkout we were told by the manager that he would contact hotels.com to give a 20% reimbursement of what we paid, but I have not heard anything since. Three messages left to the manager, no answer. I am reporting that to the chain management. If they did not manage to fix the hot water problem in three days, I suspect the damage is serious, so I would suggest to stay away from this place and be careful with the promises of their management. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>I don't normally look for exceptional luxury in an hotel, but prefer a good average place which is clean, with good service and breakfast. That's why I have often chosen the Holiday Inn Express chain. This time however I was very disappointed. The first room we were given was the smallest I have ever seen in the USA. I asked for a bigger one and was offered one, at a reasonable extra price. The troubles started on the second day, when suddenly there was no hot water. For the next two days we were told the same story, that there was people fixing it. So we decided to stay, rather than checking out, also because the room was pre-paid via hotels.com. But we never got back the hot water. At checkout we were told by the manager that he would contact hotels.com to give a 20% reimbursement of what we paid, but I have not heard anything since. Three messages left to the manager, no answer. I am reporting that to the chain management. If they did not manage to fix the hot water problem in three days, I suspect the damage is serious, so I would suggest to stay away from this place and be careful with the promises of their management. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r346678037-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>346678037</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel.</t>
+  </si>
+  <si>
+    <t>Stayed one night here and this hotel was great. Hotel is new and rooms clean and the help were attentive. I cant comment on the breakfast as I did not eat it, although it smelled good. The location was excellent for my needs and lots of restaurants nearby to accommodate. I would recommend and would stay there again if in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night here and this hotel was great. Hotel is new and rooms clean and the help were attentive. I cant comment on the breakfast as I did not eat it, although it smelled good. The location was excellent for my needs and lots of restaurants nearby to accommodate. I would recommend and would stay there again if in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r333006955-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>333006955</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>We try to stay here every time we go to Louisiana!</t>
+  </si>
+  <si>
+    <t>We love this hotel! We have stayed here several times. Great staff! Great location! Comfortable beds! Free wifi! We stayed here two times in 1 week going to and coming from Louisiana. We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>We love this hotel! We have stayed here several times. Great staff! Great location! Comfortable beds! Free wifi! We stayed here two times in 1 week going to and coming from Louisiana. We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r327834288-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>327834288</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Poor from start to finish</t>
+  </si>
+  <si>
+    <t>As an IHG Spire I expected to get what I asked for when I booked a quiet room. I got one overlooking the freeway and was told no others were available as there was some religious meeting locally an the hotel was full. This is despite booking well in advance. Got the room changes after the first night of little sleep. Breakfast was a shambles, the hotel staff could not cope, the food area was like a swarm of locusts had descended and when food was there it was stone cold, at one time I asked one of the ladies to put my breakfast in the microwave. there was no black tea available and eventually they sourced some. I did complain to the manager who simply said they were busy and that was that. this is the nearest HI to our office, next time it's the MarriotMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2015</t>
+  </si>
+  <si>
+    <t>As an IHG Spire I expected to get what I asked for when I booked a quiet room. I got one overlooking the freeway and was told no others were available as there was some religious meeting locally an the hotel was full. This is despite booking well in advance. Got the room changes after the first night of little sleep. Breakfast was a shambles, the hotel staff could not cope, the food area was like a swarm of locusts had descended and when food was there it was stone cold, at one time I asked one of the ladies to put my breakfast in the microwave. there was no black tea available and eventually they sourced some. I did complain to the manager who simply said they were busy and that was that. this is the nearest HI to our office, next time it's the MarriotMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r316868681-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>316868681</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Unreasonable/Bad Mannered</t>
+  </si>
+  <si>
+    <t>Checked in and went down hill from there, put in to a Smoking room and asked to be moved and told smoking room was booked , ( NO ) I had 4 colleagues turn up from UK 3 checked in but 4 was not as the manager stated there was a room booked but not paid for, this manager Jim would not listen he just went on a rant and was not professional at al and my college had to pay for this room himself,Checked with my Agent and that room like the rest was per booked and pre paid During check in all the guys cards were swiped for incidentals as normal and they guys found that £200 had been taken from each of there accounts, This is so wrong, You can not speak to the manager he knows betterMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Checked in and went down hill from there, put in to a Smoking room and asked to be moved and told smoking room was booked , ( NO ) I had 4 colleagues turn up from UK 3 checked in but 4 was not as the manager stated there was a room booked but not paid for, this manager Jim would not listen he just went on a rant and was not professional at al and my college had to pay for this room himself,Checked with my Agent and that room like the rest was per booked and pre paid During check in all the guys cards were swiped for incidentals as normal and they guys found that £200 had been taken from each of there accounts, This is so wrong, You can not speak to the manager he knows betterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r305543297-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>305543297</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Good internet speeds.</t>
+  </si>
+  <si>
+    <t>Internet speeds were very fast (both wired and wireless) with download speed of 45+ mbps. Internet login does not expire after 1 day so you can easily stay logged in for multiple days with out having to login again.TV's are also 1080p and Chromecast-friendly. Cozy rooms. My room had a ceiling fan as well as an AC unit; you usually don't find both in a standard hotel room.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r298098799-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>298098799</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>First Class Hotel</t>
+  </si>
+  <si>
+    <t>My experience at this hotel was wonderful.  I couldn't have ask for anything else but a quiet night and comfortable bed.  The hotel was cleaned and above my expectations for and Express.  I have already booked my next visit to Katy at this place. Front Desk staff were amazing, Way to Go, Great Job!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r274812145-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>274812145</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Overnight Business trip</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and it served its purpose. Nothing special - the room had a funky smell upon check-in, but it didn't bother me for the rest of the stay. It was clean and the linens smelled fresh and clean. The hotel is located right on the high-way, but there are restaurants within walking distance. Front desk was nice enough - breakfast looked like a standard holiday-inn continental breakfast. I wanted to grab a banana to go, and there was no fresh fruit - everything was pre-packaged. Also, be aware that there are not a lot of cabs in the area and it took approximately 20 minutes for a cab or an Uber to arrive, so you are out of luck if you don't have your own car.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and it served its purpose. Nothing special - the room had a funky smell upon check-in, but it didn't bother me for the rest of the stay. It was clean and the linens smelled fresh and clean. The hotel is located right on the high-way, but there are restaurants within walking distance. Front desk was nice enough - breakfast looked like a standard holiday-inn continental breakfast. I wanted to grab a banana to go, and there was no fresh fruit - everything was pre-packaged. Also, be aware that there are not a lot of cabs in the area and it took approximately 20 minutes for a cab or an Uber to arrive, so you are out of luck if you don't have your own car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r264020624-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>264020624</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Not satisfied</t>
+  </si>
+  <si>
+    <t>Long story short, housekeeping stole from me, manager did nothing!! He fought with me and basically told me I misplaced my items and they didn't steal from me. He stated he does an extensive background check on all his employees. Corporate is handling it now! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Jim_HX5133JA, Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded April 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2015</t>
+  </si>
+  <si>
+    <t>Long story short, housekeeping stole from me, manager did nothing!! He fought with me and basically told me I misplaced my items and they didn't steal from me. He stated he does an extensive background check on all his employees. Corporate is handling it now! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r262638097-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>262638097</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>EXCEEDED MY EXPECTATIONS</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite a member of the HIG and this hotel should be a training model for the HIE chain. It has exceptionally clean, large comfortable rooms with very comfortable beds. The bathrooms are like new with everything well stocked. Everything in the mini kitchen was clean and worked as it should.The entire staff are all professional, courteous, friendly and went out of their way to make our stay one to remember. It has the usual free breakfast with many choices for everyone to choose from with a large very clean breakfast area with a friendly, smiling and attentive lady keeping everything clean and hot. We chose this hotel as our hotel "Headquarters" for a family wedding nearby. Easy access to the Katy Thruway with numerous restaurants within walking distance, 2 of which are in the hotel parking lot. Many others (approx 20) of all food groups are just across the street. Lots of shopping and things to do within a 3 mile radius and Katy Mills Mall with a large Bass Pro Shop about 10 minutes away. We were a group of about 40 people, mostly all from out of state, many of which had not stayed at a HIE Hotel before and not one of them could find a negative to say about their stay. The were very impressed and I encouraged most of them to join the rewards program.
+I highly recommend this hotel if...I am a Platinum Elite a member of the HIG and this hotel should be a training model for the HIE chain. It has exceptionally clean, large comfortable rooms with very comfortable beds. The bathrooms are like new with everything well stocked. Everything in the mini kitchen was clean and worked as it should.The entire staff are all professional, courteous, friendly and went out of their way to make our stay one to remember. It has the usual free breakfast with many choices for everyone to choose from with a large very clean breakfast area with a friendly, smiling and attentive lady keeping everything clean and hot. We chose this hotel as our hotel "Headquarters" for a family wedding nearby. Easy access to the Katy Thruway with numerous restaurants within walking distance, 2 of which are in the hotel parking lot. Many others (approx 20) of all food groups are just across the street. Lots of shopping and things to do within a 3 mile radius and Katy Mills Mall with a large Bass Pro Shop about 10 minutes away. We were a group of about 40 people, mostly all from out of state, many of which had not stayed at a HIE Hotel before and not one of them could find a negative to say about their stay. The were very impressed and I encouraged most of them to join the rewards program.I highly recommend this hotel if you are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jim_HX5133JA, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded April 7, 2015</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite a member of the HIG and this hotel should be a training model for the HIE chain. It has exceptionally clean, large comfortable rooms with very comfortable beds. The bathrooms are like new with everything well stocked. Everything in the mini kitchen was clean and worked as it should.The entire staff are all professional, courteous, friendly and went out of their way to make our stay one to remember. It has the usual free breakfast with many choices for everyone to choose from with a large very clean breakfast area with a friendly, smiling and attentive lady keeping everything clean and hot. We chose this hotel as our hotel "Headquarters" for a family wedding nearby. Easy access to the Katy Thruway with numerous restaurants within walking distance, 2 of which are in the hotel parking lot. Many others (approx 20) of all food groups are just across the street. Lots of shopping and things to do within a 3 mile radius and Katy Mills Mall with a large Bass Pro Shop about 10 minutes away. We were a group of about 40 people, mostly all from out of state, many of which had not stayed at a HIE Hotel before and not one of them could find a negative to say about their stay. The were very impressed and I encouraged most of them to join the rewards program.
+I highly recommend this hotel if...I am a Platinum Elite a member of the HIG and this hotel should be a training model for the HIE chain. It has exceptionally clean, large comfortable rooms with very comfortable beds. The bathrooms are like new with everything well stocked. Everything in the mini kitchen was clean and worked as it should.The entire staff are all professional, courteous, friendly and went out of their way to make our stay one to remember. It has the usual free breakfast with many choices for everyone to choose from with a large very clean breakfast area with a friendly, smiling and attentive lady keeping everything clean and hot. We chose this hotel as our hotel "Headquarters" for a family wedding nearby. Easy access to the Katy Thruway with numerous restaurants within walking distance, 2 of which are in the hotel parking lot. Many others (approx 20) of all food groups are just across the street. Lots of shopping and things to do within a 3 mile radius and Katy Mills Mall with a large Bass Pro Shop about 10 minutes away. We were a group of about 40 people, mostly all from out of state, many of which had not stayed at a HIE Hotel before and not one of them could find a negative to say about their stay. The were very impressed and I encouraged most of them to join the rewards program.I highly recommend this hotel if you are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r253730465-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>253730465</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Rude staff, incompetent service</t>
+  </si>
+  <si>
+    <t>I booked this hotel for some guest visiting me, and for sure they were disappointed. The staff was pretty rude since check in. We arrived earlier than the regular checkin time so they asked us to wait or either get a fax from the travel website to consider an early checkin. They accommodated us but without our knowledge changed our check out to be one day early. This caused a lot of hassle for us since we never knew that we had to check out a day early. Eventually ended up paying for additional night for checking in a few hours early that too at the full cost. absolute dishonest service.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel for some guest visiting me, and for sure they were disappointed. The staff was pretty rude since check in. We arrived earlier than the regular checkin time so they asked us to wait or either get a fax from the travel website to consider an early checkin. They accommodated us but without our knowledge changed our check out to be one day early. This caused a lot of hassle for us since we never knew that we had to check out a day early. Eventually ended up paying for additional night for checking in a few hours early that too at the full cost. absolute dishonest service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r250825351-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>250825351</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Traveling for work outside of houston</t>
+  </si>
+  <si>
+    <t>This hotel is newer and conviently location to the entire west side of houston, or if you need to drive downtown.  I was also within an hour of IAH as well.  Staff had a great attitude.   The shower was good and the breakfast was typical for this grade of hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Jim_HX5133JA, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is newer and conviently location to the entire west side of houston, or if you need to drive downtown.  I was also within an hour of IAH as well.  Staff had a great attitude.   The shower was good and the breakfast was typical for this grade of hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r248717524-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>248717524</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Served basic purpose, but area traffic bad.</t>
+  </si>
+  <si>
+    <t>When visiting Houston area don't stay here if you have business towards downtown Houston. The traffic of getting to a business meeting can be a headache. If you have business in the general area of the hotel, then it should not be so bad. The hotel was basic. Don't have high expectations. It is just a place to stay while you are in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>When visiting Houston area don't stay here if you have business towards downtown Houston. The traffic of getting to a business meeting can be a headache. If you have business in the general area of the hotel, then it should not be so bad. The hotel was basic. Don't have high expectations. It is just a place to stay while you are in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r234803830-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>234803830</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Standard Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>The hotel is located along the Katy Freeway, thus it has easy on and off access. If you are driving towards Houston in the morning note that the traffic is an issue. Katy Freeway seems to be packed from 6 to 9 am. The rooms are up to the standard what you expect out of a Holiday Inn Express. Service was good and breakfast ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is located along the Katy Freeway, thus it has easy on and off access. If you are driving towards Houston in the morning note that the traffic is an issue. Katy Freeway seems to be packed from 6 to 9 am. The rooms are up to the standard what you expect out of a Holiday Inn Express. Service was good and breakfast ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r234029258-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>234029258</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Very professional &amp; friendly</t>
+  </si>
+  <si>
+    <t>The staff was very curious and friendly, the rooms were very clean and presentable BUT the walls are very thin, towels were very rough &amp; frayed, and they checked me in but I was charged as a no-show and they said it couldn't be reversed. So my receipt says "no-show". How can I prove my business expense if the receipt says no-show? Frustrated. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very curious and friendly, the rooms were very clean and presentable BUT the walls are very thin, towels were very rough &amp; frayed, and they checked me in but I was charged as a no-show and they said it couldn't be reversed. So my receipt says "no-show". How can I prove my business expense if the receipt says no-show? Frustrated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r233463330-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>233463330</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Good hotel, excellent location for bar/restaurants</t>
+  </si>
+  <si>
+    <t>We stopped at the Holiday Inn Katy by chance on our 19 day road trip from Miami to Los Angeles. The hotel was very good. The service was excellent, the room was comfortable, and clean and spotless as was the bathroom. the price was fair, and it was the best example out of the 3/4 holiday inn's we stayed at on the trip.Solid free wifi. The location is next to the I-10, and convenient as you'd expect, but far enough away that road noise as not an issue. What set this apart from the other interstate hotels/motels we stayed at was the restaurant complex opposite the hotel, a dozen or so restaurants and bars spoiling you for choice. Recommended as a solid choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We stopped at the Holiday Inn Katy by chance on our 19 day road trip from Miami to Los Angeles. The hotel was very good. The service was excellent, the room was comfortable, and clean and spotless as was the bathroom. the price was fair, and it was the best example out of the 3/4 holiday inn's we stayed at on the trip.Solid free wifi. The location is next to the I-10, and convenient as you'd expect, but far enough away that road noise as not an issue. What set this apart from the other interstate hotels/motels we stayed at was the restaurant complex opposite the hotel, a dozen or so restaurants and bars spoiling you for choice. Recommended as a solid choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r212177940-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>212177940</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>HIGHLY RECOMMEND!!</t>
+  </si>
+  <si>
+    <t>We are here for 5 days for an equestrian training clinic... This is the CLEANEST/NICEST/BEST staffed hotel in this area!! We are here, every month for events at the local equestrian facility... We had never stayed here before, BUT, I promise we always will from this point, forward! Thank you for finally providing a great place in the area to stay!  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>We are here for 5 days for an equestrian training clinic... This is the CLEANEST/NICEST/BEST staffed hotel in this area!! We are here, every month for events at the local equestrian facility... We had never stayed here before, BUT, I promise we always will from this point, forward! Thank you for finally providing a great place in the area to stay!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r211677777-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>211677777</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Nice option on the west side of Houston</t>
+  </si>
+  <si>
+    <t>I would have liked to have given a 5, because the staff was friendly, property was clean and well maintained and breakfast was the typical Express options.  But the "business center" was a waste of square footage and equipment.  Yes, I put it in quotes because it shouldn't be called a business center at it's present state.  Out of date, slow computers and a non-working printer does nothing to allow business to be done.  Other than that, it was a great stay with LOTS of dining options within walking distance or a very short drive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r211278483-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>211278483</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>EXCELLENT STAY &amp; CREW! :)</t>
+  </si>
+  <si>
+    <t>Went to Katy for a business trip and stayed 4 nights at this hotel.Best experience ever. I was received by the pm receptionist who had a huge smile in her face and was just so happy to help me. This was great since I had been at airports for 12 hrs with 2 delayed flights. Room was so comfy &amp; clean.Breakfast was always hot and looked organized.Gym with towels/water.Business center with printer working.In my stay I received a bunch of personal packages by mail. Front desk ladies had everything ready when I arrived.Really no complaints...this hotel is just great :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r205087345-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>205087345</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Decent enough.</t>
+  </si>
+  <si>
+    <t>Not realising it was OTC week I didn't understand why none of my usual choices were available! Ended up here and it was a quite reasonable stay, good staff and breakfast, noisy air conditioner and even though the firm pillows were too soft it didn't spoil the stay. Good location for food with various choices at hand, you can even walk to them if you're eccentric or British.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r197974474-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>197974474</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Hotel will not take reservations at the front desk....bad business???</t>
+  </si>
+  <si>
+    <t>As a frequent traveler I try and book directly with the hotel, especially since I stay at the same locations several times a year.  I travel 5 days a week and I am a IHG Rewards member.I called this afternoon and spoke with "Kim" who transferred me to the 800# for reservations.  Now if I had wanted to call reservations I would have!  When I called back, he told me that they didn't really take reservations at the front desk.Kim if you are the owner, you might want to review your business practices.  If this is one of your employees, you might want to do the same. Really surprised.....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Tracey H, Director of Sales at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded March 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2014</t>
+  </si>
+  <si>
+    <t>As a frequent traveler I try and book directly with the hotel, especially since I stay at the same locations several times a year.  I travel 5 days a week and I am a IHG Rewards member.I called this afternoon and spoke with "Kim" who transferred me to the 800# for reservations.  Now if I had wanted to call reservations I would have!  When I called back, he told me that they didn't really take reservations at the front desk.Kim if you are the owner, you might want to review your business practices.  If this is one of your employees, you might want to do the same. Really surprised.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r194851949-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>194851949</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>I have stayed here for 4 nights once in November and once in December. Both stays were comfortable -- the rooms clean, well appointed, and mostly quiet.  I did not eat at the breakfast buffet -- I generally prefer not to.  The coffee at the buffet was okay.   My only complaint was that the last stay the energetic cleaning crew threw away the TSA approved plastic bag for my liquids and gels.  When I called down to the front desk to see if they had a replacement, the front desk staff had no idea what I was talking about and asked if a laundry bag would do.  No, only a quart sized zip closure bag works.  I had time to stop at the store, but if I was heading straight to the airport it would have been a problem.  A little training is in order!  Otherwise, the stay was just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Tracey H, Director of Sales at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded March 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here for 4 nights once in November and once in December. Both stays were comfortable -- the rooms clean, well appointed, and mostly quiet.  I did not eat at the breakfast buffet -- I generally prefer not to.  The coffee at the buffet was okay.   My only complaint was that the last stay the energetic cleaning crew threw away the TSA approved plastic bag for my liquids and gels.  When I called down to the front desk to see if they had a replacement, the front desk staff had no idea what I was talking about and asked if a laundry bag would do.  No, only a quart sized zip closure bag works.  I had time to stop at the store, but if I was heading straight to the airport it would have been a problem.  A little training is in order!  Otherwise, the stay was just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r183425744-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>183425744</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn Express in Katy, Tx</t>
+  </si>
+  <si>
+    <t>My recent stay at the Holiday Inn in Katy, Tx was wonderful. To start off, this location serves the best breakfast that have eaten in a hotel in a long time. The warm cinnamon rolls and apple danishes were great. The double queen bed allowed my three sons and I to sleep comfortably for the entire. Plenty of space and a nice tv.The service was great. I was greeted several times and housekeeping did a good job at cleaning the room and preparing it for our arrival.I will hopefully stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>My recent stay at the Holiday Inn in Katy, Tx was wonderful. To start off, this location serves the best breakfast that have eaten in a hotel in a long time. The warm cinnamon rolls and apple danishes were great. The double queen bed allowed my three sons and I to sleep comfortably for the entire. Plenty of space and a nice tv.The service was great. I was greeted several times and housekeeping did a good job at cleaning the room and preparing it for our arrival.I will hopefully stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r182013616-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>182013616</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Decent and average</t>
+  </si>
+  <si>
+    <t>I’m NOT an IHG fan but unfortunately we are Priority Club Platinum Members due to excessive traveling for work (&amp; at times play).  
+Our star status was hung on our door which was kind of cheesy, but didn’t bother us much.  We didn't notice any perks either from the status....I see suites advertised in their (professional) photos but those weren't offered.  
+We stayed on side away from freeway so no outside noise problems for us.
+But be prepared: the walls are PAPER THIN so you hear other guests next door and walking up and down the halls! We were given the handicap room off the elevator so that heightened the noise level!  Also, unfortunately for us, our neighbor had an infant/toddler who cried A LOT!  Although I felt bad for the baby because something had to be wrong with all that crying, I couldn’t help but become irritated because it disturbed the limited sleep we were afforded when we’d return to our room for quick periods to get rest before heading out again. 
+Because it was a handicap room, the bathroom door was really large and swung out and annoyingly kept slamming into the mirrored closet door right behind it so we were always fearful of the door breaking the mirror.  
+On the lighter note, the front desk staff was pleasant and breakfast was decent but not a good variety of fruit.  Although we were always away and of the...I’m NOT an IHG fan but unfortunately we are Priority Club Platinum Members due to excessive traveling for work (&amp; at times play).  Our star status was hung on our door which was kind of cheesy, but didn’t bother us much.  We didn't notice any perks either from the status....I see suites advertised in their (professional) photos but those weren't offered.  We stayed on side away from freeway so no outside noise problems for us.But be prepared: the walls are PAPER THIN so you hear other guests next door and walking up and down the halls! We were given the handicap room off the elevator so that heightened the noise level!  Also, unfortunately for us, our neighbor had an infant/toddler who cried A LOT!  Although I felt bad for the baby because something had to be wrong with all that crying, I couldn’t help but become irritated because it disturbed the limited sleep we were afforded when we’d return to our room for quick periods to get rest before heading out again. Because it was a handicap room, the bathroom door was really large and swung out and annoyingly kept slamming into the mirrored closet door right behind it so we were always fearful of the door breaking the mirror.  On the lighter note, the front desk staff was pleasant and breakfast was decent but not a good variety of fruit.  Although we were always away and of the go, there are many food places in the vicinity to go to.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Tracey H, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>I’m NOT an IHG fan but unfortunately we are Priority Club Platinum Members due to excessive traveling for work (&amp; at times play).  
+Our star status was hung on our door which was kind of cheesy, but didn’t bother us much.  We didn't notice any perks either from the status....I see suites advertised in their (professional) photos but those weren't offered.  
+We stayed on side away from freeway so no outside noise problems for us.
+But be prepared: the walls are PAPER THIN so you hear other guests next door and walking up and down the halls! We were given the handicap room off the elevator so that heightened the noise level!  Also, unfortunately for us, our neighbor had an infant/toddler who cried A LOT!  Although I felt bad for the baby because something had to be wrong with all that crying, I couldn’t help but become irritated because it disturbed the limited sleep we were afforded when we’d return to our room for quick periods to get rest before heading out again. 
+Because it was a handicap room, the bathroom door was really large and swung out and annoyingly kept slamming into the mirrored closet door right behind it so we were always fearful of the door breaking the mirror.  
+On the lighter note, the front desk staff was pleasant and breakfast was decent but not a good variety of fruit.  Although we were always away and of the...I’m NOT an IHG fan but unfortunately we are Priority Club Platinum Members due to excessive traveling for work (&amp; at times play).  Our star status was hung on our door which was kind of cheesy, but didn’t bother us much.  We didn't notice any perks either from the status....I see suites advertised in their (professional) photos but those weren't offered.  We stayed on side away from freeway so no outside noise problems for us.But be prepared: the walls are PAPER THIN so you hear other guests next door and walking up and down the halls! We were given the handicap room off the elevator so that heightened the noise level!  Also, unfortunately for us, our neighbor had an infant/toddler who cried A LOT!  Although I felt bad for the baby because something had to be wrong with all that crying, I couldn’t help but become irritated because it disturbed the limited sleep we were afforded when we’d return to our room for quick periods to get rest before heading out again. Because it was a handicap room, the bathroom door was really large and swung out and annoyingly kept slamming into the mirrored closet door right behind it so we were always fearful of the door breaking the mirror.  On the lighter note, the front desk staff was pleasant and breakfast was decent but not a good variety of fruit.  Although we were always away and of the go, there are many food places in the vicinity to go to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r179286702-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>179286702</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Nice stay at the Holiday Inn in Katy, Texas</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new. I booked with Name your own price with priceline but I did not get a great deal. It was $90.00 plus fees and taxes.The hotel room was fine and it was clean. I had requested a non smoking room but I was given a smoking room. At check in they told me they were full and were unable to change rooms. I did not make a big deal out of it and just took the smoking room. It did smell a little of smoke, but not too bad.The breakfast was very good! They had lots of choices including scrambled eggs, sausages, pancakes, fruit, yogurt, cereal and juices and coffee.The people in the breakfast room were extremely friendly and helpful!The pool area was small but it was clean and had plenty of chairs. Overall, we enjoyed our stay at the Holiday Inn Express in Katy, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new. I booked with Name your own price with priceline but I did not get a great deal. It was $90.00 plus fees and taxes.The hotel room was fine and it was clean. I had requested a non smoking room but I was given a smoking room. At check in they told me they were full and were unable to change rooms. I did not make a big deal out of it and just took the smoking room. It did smell a little of smoke, but not too bad.The breakfast was very good! They had lots of choices including scrambled eggs, sausages, pancakes, fruit, yogurt, cereal and juices and coffee.The people in the breakfast room were extremely friendly and helpful!The pool area was small but it was clean and had plenty of chairs. Overall, we enjoyed our stay at the Holiday Inn Express in Katy, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r167692019-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>167692019</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Easy in, easy out</t>
+  </si>
+  <si>
+    <t>Check in was easy, room was clean and comfy. Pillows were fresh. They were able to get me a nonsmoking room.! Breakfast was great, wi fi worked as well. I also really appreciate the USA today delivered to my door.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Check in was easy, room was clean and comfy. Pillows were fresh. They were able to get me a nonsmoking room.! Breakfast was great, wi fi worked as well. I also really appreciate the USA today delivered to my door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r161009695-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>161009695</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>We are Priority Club Members at HIExpress and thought we would cash in our points to stay in Katy.  The hotel itself is ok. fair locatoin next to the highway,  But for the Priority Club members you are put in the handicapped room right by the elevators and the ice machine.  Big thanks for brand loyalty.  We heard everyone come off the elevators. all night long.  Lucky only a couple of people needed ice.  Why do handicapped people get stuck by the elevator/ice machine.  My wife was trying to be nice and said if we were handicapped we might have appreciated being close to the elevator.   The hotel was only half filled so why we got the Handicapped exes able room I'm not sure.. What if someone with a handicap needed the room?When we continued out journey we found a really nice Sleep Inn in New Braunfuls and we are now Choice Hotel Priorityclub members.  Thanks HIExpress we would not have been motivated to find out about your competitor without your help.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>We are Priority Club Members at HIExpress and thought we would cash in our points to stay in Katy.  The hotel itself is ok. fair locatoin next to the highway,  But for the Priority Club members you are put in the handicapped room right by the elevators and the ice machine.  Big thanks for brand loyalty.  We heard everyone come off the elevators. all night long.  Lucky only a couple of people needed ice.  Why do handicapped people get stuck by the elevator/ice machine.  My wife was trying to be nice and said if we were handicapped we might have appreciated being close to the elevator.   The hotel was only half filled so why we got the Handicapped exes able room I'm not sure.. What if someone with a handicap needed the room?When we continued out journey we found a really nice Sleep Inn in New Braunfuls and we are now Choice Hotel Priorityclub members.  Thanks HIExpress we would not have been motivated to find out about your competitor without your help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r160608961-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>160608961</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Far from a good Holiday Inn.</t>
+  </si>
+  <si>
+    <t>I stayed here twice, and each time I made my reservation a week or more ahead, and each time they claimed they lost it. I'm a platinum member and never got an upgrade, or perk. The pool area is just so so, and the same with the breakfast. I'm going to give up on this hotel, and go down the street to the garden inn. I tried to contact the manager with no luck. If this continues I'm giving up on HI.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here twice, and each time I made my reservation a week or more ahead, and each time they claimed they lost it. I'm a platinum member and never got an upgrade, or perk. The pool area is just so so, and the same with the breakfast. I'm going to give up on this hotel, and go down the street to the garden inn. I tried to contact the manager with no luck. If this continues I'm giving up on HI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r155320049-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>155320049</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Nice Rooms, But...</t>
+  </si>
+  <si>
+    <t>The internet is billed as "high-speed" wireless. It is so slow.  It takes forever to load a page.  Also, we called ahead and specifically said our kids love to swim so it is important that they have a pool that is operational.  We were told they did.  When we got there, we found out the pool is open but not heated.  It was way too cold to swim in.  This made them seem deceitful.  These two things made our stay just average  On a positive note, they do have a good free breakfast and their rooms are clean and nicely decorated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>The internet is billed as "high-speed" wireless. It is so slow.  It takes forever to load a page.  Also, we called ahead and specifically said our kids love to swim so it is important that they have a pool that is operational.  We were told they did.  When we got there, we found out the pool is open but not heated.  It was way too cold to swim in.  This made them seem deceitful.  These two things made our stay just average  On a positive note, they do have a good free breakfast and their rooms are clean and nicely decorated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r153651827-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>153651827</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Great overnight stay</t>
+  </si>
+  <si>
+    <t>Very clean, staff very friendly. I came in w/o a reservation, and they were very accomodating.Small breakfast buffet, I didn't get a chance to try it since I had leftover food from the night before.Overall, would gladly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, staff very friendly. I came in w/o a reservation, and they were very accomodating.Small breakfast buffet, I didn't get a chance to try it since I had leftover food from the night before.Overall, would gladly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r153075140-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>153075140</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Nothing to brag about</t>
+  </si>
+  <si>
+    <t>The hotel's location is easy to find, just off of the highway. The room was expensive for what we received - with a AAA rate and PC Gold standing, we paid $125/night. The bathroom had a huge plastered-over hole in the wall that was left unpainted - tacky. The breakfast did not offer any type of fruit, not even an apple. I would not hurry back to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>The hotel's location is easy to find, just off of the highway. The room was expensive for what we received - with a AAA rate and PC Gold standing, we paid $125/night. The bathroom had a huge plastered-over hole in the wall that was left unpainted - tacky. The breakfast did not offer any type of fruit, not even an apple. I would not hurry back to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r141697257-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>141697257</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Ready for the work week!</t>
+  </si>
+  <si>
+    <t>I am a Katy resident who was looking for a room with a Jacuzzi.  I was looking for a place to get away from all the stress of home and work for the wknd and just by chance I walked in with no reservations and asked the front desk who was very helpful.  I just figured it was just another hotel but to my surprise not only was the room Wonderful but so relaxing soft beds clean rooms great service and some of the best eating places in Katy all surrounding the hotel. Great detail all the way down to the plugs in the walls and Not having to move furniture all over to plug anything up!  When my family comes to town I will put them up in one of the rooms.  Well worth the price!Kudos Katy!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I am a Katy resident who was looking for a room with a Jacuzzi.  I was looking for a place to get away from all the stress of home and work for the wknd and just by chance I walked in with no reservations and asked the front desk who was very helpful.  I just figured it was just another hotel but to my surprise not only was the room Wonderful but so relaxing soft beds clean rooms great service and some of the best eating places in Katy all surrounding the hotel. Great detail all the way down to the plugs in the walls and Not having to move furniture all over to plug anything up!  When my family comes to town I will put them up in one of the rooms.  Well worth the price!Kudos Katy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r141109925-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>141109925</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Nice &amp; Clean!</t>
+  </si>
+  <si>
+    <t>My daughter and I just stayed there during one of her softball tournaments. The hotel was nice &amp; clean!  The breakfast was good, and the staff were all friendly.  Our room was nice, so I would stay there again!  Also, hotel is close to several great restaurants -- which was nice too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r140812320-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>140812320</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Just the right place before traveling home</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a couple of nights before flying home to London. the staff are friendly the hotel is very clean and the breakfast is good. we were able to check in online in their business centre and nothing was too much trouble. the local is close to several restaurants and the outlet malls for that last minute shopping, just perfect right down to the free fruit in the foyer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r138874758-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>138874758</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>BAD &amp; TERRIBLE HOLIDAY INN EXPRESS IN KATY</t>
+  </si>
+  <si>
+    <t>I got a reservation with Hotwire, that send me to Holiday inn, whose impress was very good so far. But Gaby, counter, made me changed of good impress to worst. When I checked in, everything was fine, but when I got in I smelled like smoking. So I called Gaby and asked if this is smoking room because I was with my family, wife and 2 kids. She held me for minutes, then we came down to the counter because no one is smoking in my family, we could not stay with bad smell. She said no other room is available, but sweet room, that is more expensive and I have to pay extra, or I need to contact Hotwire. So I said, she never asked me if I prefer smoking room or not. Hotwire never ask me to choose smoking or non smoking, but counter should do while check in. And said this is the Holiday inn’s problem, not mine, neither Hotwire because reservation should be blocked if nonsmoking is no more available. She said sorry, but I have two choices,  stay a night in smoking room or pay extra for sweet room, and didn’t give me manager’s contact # because it is too late, it was almost 10pm. Yes, that’s true, it was too late for my kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded September 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2012</t>
+  </si>
+  <si>
+    <t>I got a reservation with Hotwire, that send me to Holiday inn, whose impress was very good so far. But Gaby, counter, made me changed of good impress to worst. When I checked in, everything was fine, but when I got in I smelled like smoking. So I called Gaby and asked if this is smoking room because I was with my family, wife and 2 kids. She held me for minutes, then we came down to the counter because no one is smoking in my family, we could not stay with bad smell. She said no other room is available, but sweet room, that is more expensive and I have to pay extra, or I need to contact Hotwire. So I said, she never asked me if I prefer smoking room or not. Hotwire never ask me to choose smoking or non smoking, but counter should do while check in. And said this is the Holiday inn’s problem, not mine, neither Hotwire because reservation should be blocked if nonsmoking is no more available. She said sorry, but I have two choices,  stay a night in smoking room or pay extra for sweet room, and didn’t give me manager’s contact # because it is too late, it was almost 10pm. Yes, that’s true, it was too late for my kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r133991468-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133991468</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This newly built Holiday Inn Express was a great place to stay. The front desk clerk was very friendly and helpful; the rooms were nicely done and very comfortable; the breakfast was great. There were several restaurants within walking distance. Even though the hotel was right next to the interstate, there was no traffic noise. The only issue was that the lights were not working in the back parking lot--we were told to park in the back to be closer to the elevators, but we moved our car to the front parking lot instead.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r133905236-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133905236</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Work while you relax too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel and Staff! Top notch everything. The room was very clean comfortable... Within walking distance of Texas Roadhouse. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r130302695-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>130302695</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Just check your bed sheets</t>
+  </si>
+  <si>
+    <t>We went just for the weekend, as you walk in your are greeted so kindly and smells like new! The Hotel at a great location lots of places to eat at, and gas station down the street ! Hotel is quiet despite it being off the freeway ! Only downfall the extra sheets for the sleeper were very dirty, asked twice for a new set. Very safe location.!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexs6633, Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2012</t>
+  </si>
+  <si>
+    <t>We went just for the weekend, as you walk in your are greeted so kindly and smells like new! The Hotel at a great location lots of places to eat at, and gas station down the street ! Hotel is quiet despite it being off the freeway ! Only downfall the extra sheets for the sleeper were very dirty, asked twice for a new set. Very safe location.!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r127689644-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>127689644</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Nice location, nice people, good sleep</t>
+  </si>
+  <si>
+    <t>Stayed overnight and enjoyed the room (quiet, comfortable) and the staff was friendly and efficient. I will definitely choose this location for future visits to Katy.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r127216284-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>127216284</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>Better the First Time</t>
+  </si>
+  <si>
+    <t>Fast check-in by friendly staff.  Large, comfortable room.  Choice of TV programming could have been better and Wi-Fi was slow.  Great breakfast just like my previous stay.  Check-out was a little stressful.  There were only 2 self-serve baggage carts for the entire motel.  Not enough for a property this size.  Waited for 30 minutes for one to be available.  Never got one.  Ended up having to make several trips from the 3rd floor to the car carrying everything.  Maids hijacked the elevators with their carts during the prime check-out time.  My stay didn't end on a good note.  Otherwise this is a good place to stay when in Katy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 8, 2012</t>
+  </si>
+  <si>
+    <t>Fast check-in by friendly staff.  Large, comfortable room.  Choice of TV programming could have been better and Wi-Fi was slow.  Great breakfast just like my previous stay.  Check-out was a little stressful.  There were only 2 self-serve baggage carts for the entire motel.  Not enough for a property this size.  Waited for 30 minutes for one to be available.  Never got one.  Ended up having to make several trips from the 3rd floor to the car carrying everything.  Maids hijacked the elevators with their carts during the prime check-out time.  My stay didn't end on a good note.  Otherwise this is a good place to stay when in Katy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r118820796-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>118820796</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Nice! Nice! Nice!</t>
+  </si>
+  <si>
+    <t>If you are visting the Katy, Texas area - this is the place to stay.  The staff was great, the breakfast was awesome and I have nothing to say but but good things!  We stayed in on of the King Suites - I recommend them.  Nice an room to spread out an work.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r118062894-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>118062894</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Great value, brand new hotel</t>
+  </si>
+  <si>
+    <t>I enjoyed the very clean hotel and the friendly staff. Had a meeting here in their conference room and the responsiveness was great. Beds had new linens and the bathrooms were very nice. Definitely would reccomend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r117754826-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>117754826</t>
+  </si>
+  <si>
+    <t>09/06/2011</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>The hotel is located on I-10.  Fast, friendly check-in/out.  Room was very comfortable.  The free breakfast was outstanding and the dining room was spotless.  Very nice lady keeping the breakfast buffet stocked full of every type breakfast food you would want.  Can't say too much about the friendly staff.  Without exception they would greet you with a smile and a hello.  I would highly recommend this hotel if staying in Katy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r73969390-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>73969390</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Fabulous!  Clean, comfortable, classy</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel as a stay over on my way into Houston for the weekend, and I can't express how much I enjoyed this hotel.   The staff was over the top -- friendly, helpful, and even funny.   Checking in the hostess asked if I wanted a wakeup call, and I was so excited that I wasn't asking for a 6am call!   She confirmed that I was on a pleasure trip, and then said well how about let's get you a late check out -- how's 2 pm sound.   Yes, yes!! Please.   lol..   anyhow, when I woke the next morning, I wanted to enjoy the pool for a short time before departing, but it didn't open until 10am.    I asked if I could visit the pool if I would be quiet and not actually get in but rather catch some rays, and with a smile he said "no problem".      If I had been alone I think I would have just stayed right there for the weekend, but my son had come along and we had museum plans in Houston, so after we enjoyed breakfast we departed.   I often have business in Houston, and I've mapped the route and figured out that I can stay here and do business in Houston without too much of a delay - and that is exactly what I plan to do.   Bravo HIE!!!   You have a winner in this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel as a stay over on my way into Houston for the weekend, and I can't express how much I enjoyed this hotel.   The staff was over the top -- friendly, helpful, and even funny.   Checking in the hostess asked if I wanted a wakeup call, and I was so excited that I wasn't asking for a 6am call!   She confirmed that I was on a pleasure trip, and then said well how about let's get you a late check out -- how's 2 pm sound.   Yes, yes!! Please.   lol..   anyhow, when I woke the next morning, I wanted to enjoy the pool for a short time before departing, but it didn't open until 10am.    I asked if I could visit the pool if I would be quiet and not actually get in but rather catch some rays, and with a smile he said "no problem".      If I had been alone I think I would have just stayed right there for the weekend, but my son had come along and we had museum plans in Houston, so after we enjoyed breakfast we departed.   I often have business in Houston, and I've mapped the route and figured out that I can stay here and do business in Houston without too much of a delay - and that is exactly what I plan to do.   Bravo HIE!!!   You have a winner in this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r68215656-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>68215656</t>
+  </si>
+  <si>
+    <t>06/21/2010</t>
+  </si>
+  <si>
+    <t>This is a great hotel</t>
+  </si>
+  <si>
+    <t>My husband and I along with our 16 year old son stayed at this hotel for 5 nights and truly enjoyed our stay.  We had an executive suite with 2 queen beds.  It is their largest suite, and it is really large.  The pictures on the website are the same room that we received, but the pictures do not convey how big this suite is.  The bedroom area is large, having it's own tv and desk area, then there is a living room with another tv, couch, table, large chair and also a table with 2 chairs.  The living room is open to the sleeping area.  I wish it had a door between the 2 rooms. 
+The beds were comfortable, but seemed small for a queen size bed.  (I'm used to a king) There is a microwave, small fridge, coffee maker and some utensils are provided.  The bathroom was large, with a tv and had a 2 person garden tub.   The hotel is only 4 months old so everything was incredibly clean, and new.  The staff was absolutely superb-from the front desk people to housekeeping.  The hot breakfast every morning consisted of eggs, bacon or sausage, biscuits and gravy, cereal/milk, juice, coffee, sweet rolls, muffins, bagels, english muffins, fruit, and yogurt.  It was good, but we had the same choice every morning for 5 mornings.  Pancakes or french toast would have been nice, but it was free.
+The pool is...My husband and I along with our 16 year old son stayed at this hotel for 5 nights and truly enjoyed our stay.  We had an executive suite with 2 queen beds.  It is their largest suite, and it is really large.  The pictures on the website are the same room that we received, but the pictures do not convey how big this suite is.  The bedroom area is large, having it's own tv and desk area, then there is a living room with another tv, couch, table, large chair and also a table with 2 chairs.  The living room is open to the sleeping area.  I wish it had a door between the 2 rooms. The beds were comfortable, but seemed small for a queen size bed.  (I'm used to a king) There is a microwave, small fridge, coffee maker and some utensils are provided.  The bathroom was large, with a tv and had a 2 person garden tub.   The hotel is only 4 months old so everything was incredibly clean, and new.  The staff was absolutely superb-from the front desk people to housekeeping.  The hot breakfast every morning consisted of eggs, bacon or sausage, biscuits and gravy, cereal/milk, juice, coffee, sweet rolls, muffins, bagels, english muffins, fruit, and yogurt.  It was good, but we had the same choice every morning for 5 mornings.  Pancakes or french toast would have been nice, but it was free.The pool is small, but nice.  We went swimming every morning between 10 and 11 am and had the pool to ourselves.  I wish the pool opened before 10, I would have been out there even earlier.  This is also a whirlpool.The Cheddars restaurant in the parking lot is great!  There are many restaurants that you can walk to.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>My husband and I along with our 16 year old son stayed at this hotel for 5 nights and truly enjoyed our stay.  We had an executive suite with 2 queen beds.  It is their largest suite, and it is really large.  The pictures on the website are the same room that we received, but the pictures do not convey how big this suite is.  The bedroom area is large, having it's own tv and desk area, then there is a living room with another tv, couch, table, large chair and also a table with 2 chairs.  The living room is open to the sleeping area.  I wish it had a door between the 2 rooms. 
+The beds were comfortable, but seemed small for a queen size bed.  (I'm used to a king) There is a microwave, small fridge, coffee maker and some utensils are provided.  The bathroom was large, with a tv and had a 2 person garden tub.   The hotel is only 4 months old so everything was incredibly clean, and new.  The staff was absolutely superb-from the front desk people to housekeeping.  The hot breakfast every morning consisted of eggs, bacon or sausage, biscuits and gravy, cereal/milk, juice, coffee, sweet rolls, muffins, bagels, english muffins, fruit, and yogurt.  It was good, but we had the same choice every morning for 5 mornings.  Pancakes or french toast would have been nice, but it was free.
+The pool is...My husband and I along with our 16 year old son stayed at this hotel for 5 nights and truly enjoyed our stay.  We had an executive suite with 2 queen beds.  It is their largest suite, and it is really large.  The pictures on the website are the same room that we received, but the pictures do not convey how big this suite is.  The bedroom area is large, having it's own tv and desk area, then there is a living room with another tv, couch, table, large chair and also a table with 2 chairs.  The living room is open to the sleeping area.  I wish it had a door between the 2 rooms. The beds were comfortable, but seemed small for a queen size bed.  (I'm used to a king) There is a microwave, small fridge, coffee maker and some utensils are provided.  The bathroom was large, with a tv and had a 2 person garden tub.   The hotel is only 4 months old so everything was incredibly clean, and new.  The staff was absolutely superb-from the front desk people to housekeeping.  The hot breakfast every morning consisted of eggs, bacon or sausage, biscuits and gravy, cereal/milk, juice, coffee, sweet rolls, muffins, bagels, english muffins, fruit, and yogurt.  It was good, but we had the same choice every morning for 5 mornings.  Pancakes or french toast would have been nice, but it was free.The pool is small, but nice.  We went swimming every morning between 10 and 11 am and had the pool to ourselves.  I wish the pool opened before 10, I would have been out there even earlier.  This is also a whirlpool.The Cheddars restaurant in the parking lot is great!  There are many restaurants that you can walk to.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1898,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1930,3916 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>226</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+      <c r="X28" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>268</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>269</v>
+      </c>
+      <c r="X29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>335</v>
+      </c>
+      <c r="X38" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J39" t="s">
+        <v>340</v>
+      </c>
+      <c r="K39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" t="s">
+        <v>342</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>343</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>344</v>
+      </c>
+      <c r="X39" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>226</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>335</v>
+      </c>
+      <c r="X40" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>335</v>
+      </c>
+      <c r="X41" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s">
+        <v>365</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="X42" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>375</v>
+      </c>
+      <c r="X43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>335</v>
+      </c>
+      <c r="X45" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>398</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>399</v>
+      </c>
+      <c r="X46" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>407</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>407</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J49" t="s">
+        <v>416</v>
+      </c>
+      <c r="K49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>420</v>
+      </c>
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s">
+        <v>422</v>
+      </c>
+      <c r="L50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>424</v>
+      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>425</v>
+      </c>
+      <c r="X50" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>428</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>429</v>
+      </c>
+      <c r="J51" t="s">
+        <v>430</v>
+      </c>
+      <c r="K51" t="s">
+        <v>431</v>
+      </c>
+      <c r="L51" t="s">
+        <v>432</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>435</v>
+      </c>
+      <c r="J52" t="s">
+        <v>436</v>
+      </c>
+      <c r="K52" t="s">
+        <v>437</v>
+      </c>
+      <c r="L52" t="s">
+        <v>438</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>440</v>
+      </c>
+      <c r="J53" t="s">
+        <v>441</v>
+      </c>
+      <c r="K53" t="s">
+        <v>442</v>
+      </c>
+      <c r="L53" t="s">
+        <v>443</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>444</v>
+      </c>
+      <c r="X53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>453</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="J55" t="s">
+        <v>455</v>
+      </c>
+      <c r="K55" t="s">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s">
+        <v>457</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>458</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>459</v>
+      </c>
+      <c r="X55" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>466</v>
+      </c>
+      <c r="O56" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>468</v>
+      </c>
+      <c r="J57" t="s">
+        <v>469</v>
+      </c>
+      <c r="K57" t="s">
+        <v>470</v>
+      </c>
+      <c r="L57" t="s">
+        <v>471</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>466</v>
+      </c>
+      <c r="O57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s">
+        <v>476</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>466</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" t="s">
+        <v>479</v>
+      </c>
+      <c r="K59" t="s">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s">
+        <v>481</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>482</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>485</v>
+      </c>
+      <c r="J60" t="s">
+        <v>486</v>
+      </c>
+      <c r="K60" t="s">
+        <v>487</v>
+      </c>
+      <c r="L60" t="s">
+        <v>488</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>489</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_337.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_337.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="771">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r610295948-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>1605019</t>
+  </si>
+  <si>
+    <t>610295948</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the freeway. It is very clean and plenty of free parking. There are several good restaurants across from the parking lot that you can walk to. The staff was helpful and informative. With the free full breakfast you can't go wrong.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r591226759-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>591226759</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent place for a short stop over</t>
+  </si>
+  <si>
+    <t>The location is very convenient- and if you are Spire Elite member they upgrade you. The front desk staff were easy to deal with- and they had warm freshly baked cookies for the kids to enjoy (and their parents:-))We have just moved to Houston and this was our first night in the city.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r564767511-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>564767511</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Stayed here one night for a baseball  tournament. Clean, friendly, with a good breakfast available. Got a larger room to have a pull out sofa, growing teenagers needed space. Pull out sofa was clean with clean bedding available. Only two very small issues. 1)Only three towels for a larger room, two queens and sofa bed. I should have called for more but it was so late when we got in, I was too tired. 2) the air conditioning unit in the room was very loud, waking us throughout the night.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r561024171-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>1605019</t>
-  </si>
-  <si>
     <t>561024171</t>
   </si>
   <si>
@@ -177,9 +234,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r548273288-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -222,6 +276,48 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r525234096-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>525234096</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a relaxing stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to stay with my husband while he was away with work and it was so nice.  I had no problems at all.  The hot tub was so cozy and relaxing.  Even tho we were at the end of the hall the noise wasn't bad at all.  Truly a great stay.  </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r525228261-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>525228261</t>
+  </si>
+  <si>
+    <t>Ants</t>
+  </si>
+  <si>
+    <t>Checked Inn on Wednesday night after I travelled up from Louisiana. Few ants but nothing to worry about. Fell asleep for half an hour and woke up to the place infested.a packet of biscuits  I had open was bloody black with ants. Rang Reception from my mobile as the room phone doesn't work room 306. Have me another room then came back to se me in 306 and came out with!!! THERE ONLY ANTS DO YOU REALLY NEED TO MOVE. Unreliable I work all over the world and others places and would not expect this service in some of the third world countries I visit. Shocking. For some reason it will not let me upload videos MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Checked Inn on Wednesday night after I travelled up from Louisiana. Few ants but nothing to worry about. Fell asleep for half an hour and woke up to the place infested.a packet of biscuits  I had open was bloody black with ants. Rang Reception from my mobile as the room phone doesn't work room 306. Have me another room then came back to se me in 306 and came out with!!! THERE ONLY ANTS DO YOU REALLY NEED TO MOVE. Unreliable I work all over the world and others places and would not expect this service in some of the third world countries I visit. Shocking. For some reason it will not let me upload videos More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r513979872-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -237,9 +333,6 @@
     <t>I was surprised to hear the neighbors across the hall from my room.  They were talking in a normal loud tone and their words carried through their door, across the hallway, through my door to me.  This is also on the 1-10 Freeway so you have that noise, also.  I was disappointed at the breakfast service as the coffee was empty twice.  In 25 minutes I was able to get one cup of coffee because people were running up when she brought out more.  I mentioned to the front desk attendant that coffee should never be empty...never.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Nick P, Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded August 22, 2017</t>
   </si>
   <si>
@@ -291,6 +384,60 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r465457588-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>465457588</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>No bathroom privacy at all!!</t>
+  </si>
+  <si>
+    <t>So we picked this hotel for a conference we were attending in Katy.  The facilities were modern, nice and clean, and staff was friendly.  The hot breakfast was really great also!  But the craziest thing, the bathrooms had NO FANS whatsoever.  So when you needed to use the bathroom, there was NOTHING to block usual bathroom noises!  I was bunking with 3 other ladies &amp; when they used the bathroom, they had to turn on the sink, for privacy.  THEN because there was no fan, the stench would linger, finding its way into the room.... how embarrassing!  Also, the 3 ladies told me they were in the hallway, on their way to the room, when they were waiting to get into the room, they heard the neighbor pass gas!  I would NOT go back to this hotel for this very reason.  When I pass gas in the bathroom, I want it to be in private without the neighbors hearing me, &amp; I surely don't was the smell following me back inside the room to assault my roommates.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>So we picked this hotel for a conference we were attending in Katy.  The facilities were modern, nice and clean, and staff was friendly.  The hot breakfast was really great also!  But the craziest thing, the bathrooms had NO FANS whatsoever.  So when you needed to use the bathroom, there was NOTHING to block usual bathroom noises!  I was bunking with 3 other ladies &amp; when they used the bathroom, they had to turn on the sink, for privacy.  THEN because there was no fan, the stench would linger, finding its way into the room.... how embarrassing!  Also, the 3 ladies told me they were in the hallway, on their way to the room, when they were waiting to get into the room, they heard the neighbor pass gas!  I would NOT go back to this hotel for this very reason.  When I pass gas in the bathroom, I want it to be in private without the neighbors hearing me, &amp; I surely don't was the smell following me back inside the room to assault my roommates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r462257287-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>462257287</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>The other review is right!</t>
+  </si>
+  <si>
+    <t>MOLDY SMELL! Stayed this past weekend for an event in the area.  I checked into 429.  By 11:30 pm I could not take the mold smell any longer.  My eyes were swollen and itching. There was no hot water to even take a shower.  I almost just drove home.  I called the front desk and asked if they had another room.  I was told not until the morning.  I said well I will not make it til morning.  I said I will most likely be canceling my reservation for the next night.  I was told I could not since it was a non-refundable rate. ( this was not true and even the corp. number I called right after said I would be able to cancel. they lied in order for me to stay) Shortly after they did find me a new room.  The room was much better but still had a tiny musty smell.  The property overall was clean..... just the room smell was bad.  I will never return to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>MOLDY SMELL! Stayed this past weekend for an event in the area.  I checked into 429.  By 11:30 pm I could not take the mold smell any longer.  My eyes were swollen and itching. There was no hot water to even take a shower.  I almost just drove home.  I called the front desk and asked if they had another room.  I was told not until the morning.  I said well I will not make it til morning.  I said I will most likely be canceling my reservation for the next night.  I was told I could not since it was a non-refundable rate. ( this was not true and even the corp. number I called right after said I would be able to cancel. they lied in order for me to stay) Shortly after they did find me a new room.  The room was much better but still had a tiny musty smell.  The property overall was clean..... just the room smell was bad.  I will never return to this location.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r453215618-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -375,6 +522,54 @@
     <t>We made a mistake and booked a room for about a week.  We discovered our error. We tried to book a room for the week before.  They were "overbooked".  They have refused to give us a refund even though we have stayed in Holiday Inns all over the US. I wonder if Katy Holiday Inn is unique?SincerelyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r424453015-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>424453015</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>One of the Nicest Holiday Inn's Around</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is very new and contains all of the great features of a modern hotel. It is located near the Katy Mills shopping area and a number of fine restaurants. It is quite close to the new toll road that leads north to Hwy. 290 and Austin.Everything is modern, upscale and comfortable. The lobby area is nice and the rooms, particularly the bathrooms, are very clean and nice. The hallway carpeting is exceptionally beautiful.  I was very impressed and would stay here again without hesitation.J. Randolph SmithMonroe, LAMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is very new and contains all of the great features of a modern hotel. It is located near the Katy Mills shopping area and a number of fine restaurants. It is quite close to the new toll road that leads north to Hwy. 290 and Austin.Everything is modern, upscale and comfortable. The lobby area is nice and the rooms, particularly the bathrooms, are very clean and nice. The hallway carpeting is exceptionally beautiful.  I was very impressed and would stay here again without hesitation.J. Randolph SmithMonroe, LAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r398551842-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>398551842</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>Traveled for a game up in Houston, reserved HI Express Katy. Check in was a breeze, friendly staff. Both rooms where very clean. Overall the hotel is very clean. The only thing to watch out is the slippery floor in the breakfast area. Location is great fast access to Katy shopping area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Traveled for a game up in Houston, reserved HI Express Katy. Check in was a breeze, friendly staff. Both rooms where very clean. Overall the hotel is very clean. The only thing to watch out is the slippery floor in the breakfast area. Location is great fast access to Katy shopping area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r384241856-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -450,6 +645,48 @@
     <t>I would recommend this hotel and I will stay here again. Room was very clean, lobby was spotless, and the staff was very friendly. Great breakfast choice everyday and lots of it.  Easy to get in and out of, plenty of parking and the parking was very well lit. Keep up the good work!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r372052314-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>372052314</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Unpleasant stay</t>
+  </si>
+  <si>
+    <t>You guys really dropped the ball this time. Usually, Holiday Inns are clean. But things were falling apart in the bathroom, one being the unsuccessfully glued-on vent cover that just fell off the wall, revealing a filthy, disgusting vent. Gross!! Beds were lumpy and uncomfortable. The pool tiles are nasty. Breakfast wasn't appetizing: crunchy scrambled eggs, hard biscuits and cinnamon rolls. Gag.MoreShow less</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>You guys really dropped the ball this time. Usually, Holiday Inns are clean. But things were falling apart in the bathroom, one being the unsuccessfully glued-on vent cover that just fell off the wall, revealing a filthy, disgusting vent. Gross!! Beds were lumpy and uncomfortable. The pool tiles are nasty. Breakfast wasn't appetizing: crunchy scrambled eggs, hard biscuits and cinnamon rolls. Gag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r365806804-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>365806804</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>We had a King Suite.  It was very large, comfortable, and clean.  They had extra linens, pillows, and blankets in the closet to make up the pull-out couch.  The kitchenette was well equipped with microwave, coffee maker, and even had plates, cups and plastic-ware to use.  We enjoyed the stay and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a King Suite.  It was very large, comfortable, and clean.  They had extra linens, pillows, and blankets in the closet to make up the pull-out couch.  The kitchenette was well equipped with microwave, coffee maker, and even had plates, cups and plastic-ware to use.  We enjoyed the stay and would stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r365520467-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -465,12 +702,6 @@
     <t>I had booked this hotel for a business trip. As I arrived I found it very accessiable to the interstate as well as several different restaurants. Check in was fast and easy, and on top of that my room was upgrade do to my rewards status with IHG. I went upstairs to find my room clean and up to date. Breakfast was good and fresh (I can always tell by the condition of the fruit). I came back that second night to the horrible rains but had no worries. We did lose the Directv due to the weather but that wasn't their fault. If I return to Katy I will be booking at the same hotel.MoreShow less</t>
   </si>
   <si>
-    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded May 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 12, 2016</t>
-  </si>
-  <si>
     <t>I had booked this hotel for a business trip. As I arrived I found it very accessiable to the interstate as well as several different restaurants. Check in was fast and easy, and on top of that my room was upgrade do to my rewards status with IHG. I went upstairs to find my room clean and up to date. Breakfast was good and fresh (I can always tell by the condition of the fruit). I came back that second night to the horrible rains but had no worries. We did lose the Directv due to the weather but that wasn't their fault. If I return to Katy I will be booking at the same hotel.More</t>
   </si>
   <si>
@@ -522,6 +753,48 @@
     <t>I don't normally look for exceptional luxury in an hotel, but prefer a good average place which is clean, with good service and breakfast. That's why I have often chosen the Holiday Inn Express chain. This time however I was very disappointed. The first room we were given was the smallest I have ever seen in the USA. I asked for a bigger one and was offered one, at a reasonable extra price. The troubles started on the second day, when suddenly there was no hot water. For the next two days we were told the same story, that there was people fixing it. So we decided to stay, rather than checking out, also because the room was pre-paid via hotels.com. But we never got back the hot water. At checkout we were told by the manager that he would contact hotels.com to give a 20% reimbursement of what we paid, but I have not heard anything since. Three messages left to the manager, no answer. I am reporting that to the chain management. If they did not manage to fix the hot water problem in three days, I suspect the damage is serious, so I would suggest to stay away from this place and be careful with the promises of their management. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r349984616-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>349984616</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed on ground floor. This particular weekend lots of guest in a kids dance competition. We heard several giggles and running the hallways on our floor and especially above. Also some heavy footed walking above our room. I was able to sleep through most my wife not so much. Overall a good king-sized bed and a great breakfast. Room smelled musky at first with just the fan was running but quickly got better. Also basically one way into hotel they had gates up and made it difficult coming in at 9:00pm and then leaving gates were still up (9 ish am) that made you go out on frontage road. Still I would stay again nice clean place.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed on ground floor. This particular weekend lots of guest in a kids dance competition. We heard several giggles and running the hallways on our floor and especially above. Also some heavy footed walking above our room. I was able to sleep through most my wife not so much. Overall a good king-sized bed and a great breakfast. Room smelled musky at first with just the fan was running but quickly got better. Also basically one way into hotel they had gates up and made it difficult coming in at 9:00pm and then leaving gates were still up (9 ish am) that made you go out on frontage road. Still I would stay again nice clean place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r347018974-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>347018974</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel with one caveat</t>
+  </si>
+  <si>
+    <t>Friendly staff. Very clean (smelled a bit like lysol. ) They have a nice pantry for those late night cravings. The caveat?  They don't allowed concealed carry firearms in the hotel. It's posted on the door. I hope that criminals and terrorist read the sign and they don't break into our cars to steal our guns. I feel very unsafe in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff. Very clean (smelled a bit like lysol. ) They have a nice pantry for those late night cravings. The caveat?  They don't allowed concealed carry firearms in the hotel. It's posted on the door. I hope that criminals and terrorist read the sign and they don't break into our cars to steal our guns. I feel very unsafe in this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r346678037-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -537,12 +810,6 @@
     <t>Stayed one night here and this hotel was great. Hotel is new and rooms clean and the help were attentive. I cant comment on the breakfast as I did not eat it, although it smelled good. The location was excellent for my needs and lots of restaurants nearby to accommodate. I would recommend and would stay there again if in town.MoreShow less</t>
   </si>
   <si>
-    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 17, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 17, 2016</t>
-  </si>
-  <si>
     <t>Stayed one night here and this hotel was great. Hotel is new and rooms clean and the help were attentive. I cant comment on the breakfast as I did not eat it, although it smelled good. The location was excellent for my needs and lots of restaurants nearby to accommodate. I would recommend and would stay there again if in town.More</t>
   </si>
   <si>
@@ -600,6 +867,51 @@
     <t>As an IHG Spire I expected to get what I asked for when I booked a quiet room. I got one overlooking the freeway and was told no others were available as there was some religious meeting locally an the hotel was full. This is despite booking well in advance. Got the room changes after the first night of little sleep. Breakfast was a shambles, the hotel staff could not cope, the food area was like a swarm of locusts had descended and when food was there it was stone cold, at one time I asked one of the ladies to put my breakfast in the microwave. there was no black tea available and eventually they sourced some. I did complain to the manager who simply said they were busy and that was that. this is the nearest HI to our office, next time it's the MarriotMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r325087898-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>325087898</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Good time</t>
+  </si>
+  <si>
+    <t>I think the hotel was as good as any Holiday Inn. The free breakfast service was excellent. The lady taking care of us on November 7 was really friendly and nice. I wish i knew her name but thank you. Check in on the 6th was helpful they changed our room to meet our needs. The housekeeping staff was friendly as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>nick p, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>I think the hotel was as good as any Holiday Inn. The free breakfast service was excellent. The lady taking care of us on November 7 was really friendly and nice. I wish i knew her name but thank you. Check in on the 6th was helpful they changed our room to meet our needs. The housekeeping staff was friendly as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r323865371-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>323865371</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Don't bother</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night for business. I was supposed to stay the week but checked out early because the hotel smelled musty and moldy. My co-worker and I both checked out early. I had a bottle of fabreeze i carry with me and this didn't help the smell. There is some sort of mold infestation going on. If you are sensitive to smell or have allergies. Don't go to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night for business. I was supposed to stay the week but checked out early because the hotel smelled musty and moldy. My co-worker and I both checked out early. I had a bottle of fabreeze i carry with me and this didn't help the smell. There is some sort of mold infestation going on. If you are sensitive to smell or have allergies. Don't go to this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r316868681-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -657,6 +969,48 @@
     <t>My experience at this hotel was wonderful.  I couldn't have ask for anything else but a quiet night and comfortable bed.  The hotel was cleaned and above my expectations for and Express.  I have already booked my next visit to Katy at this place. Front Desk staff were amazing, Way to Go, Great Job!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r296924381-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>296924381</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Awesome Place</t>
+  </si>
+  <si>
+    <t>This hotel is very cozy and have the most friendliness staff.  I was there for the weekend and even thou this was not a luxury hotel, they treated you as if was.  From the room to the nice breakfast they serve in the morning.  Fitness center was a great plus, it's very large not like some other hotels with small room and I treadmill.  This hotel had a large one, really enjoyed my workout.  Pool was very nice and clean.  I loved this place and will be back again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r284456578-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>284456578</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Great for what it was - wedding weekend</t>
+  </si>
+  <si>
+    <t>Hotel was centrally located to tons of restaurants and the drive through Margarita place!  Easily accessible from major highways.  It was very clean although a bit run down.  The pool was nice; however, because it is right off the highway, there is no quiet relaxation.  The only real issue was the breakfast.  It was not good.  The eggs were watery, sausage gravy was thick and tasted old, biscuits were over cooked etc.  They are serving a lot of guests in the morning, so I understand some of the issues but generally speaking, this Holiday Inn had the worst food I'd ever had.  Coffee was hot which was great!  Front desk employees were great and the housekeeping team was fast and efficient.  Overall my stay was fine.  Quick wifi which I also needed as I was working one of the two days I was there.  Quiet rooms with fast moving elevators.  I had a fine stay and would return again should we ever end up in the Katy area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was centrally located to tons of restaurants and the drive through Margarita place!  Easily accessible from major highways.  It was very clean although a bit run down.  The pool was nice; however, because it is right off the highway, there is no quiet relaxation.  The only real issue was the breakfast.  It was not good.  The eggs were watery, sausage gravy was thick and tasted old, biscuits were over cooked etc.  They are serving a lot of guests in the morning, so I understand some of the issues but generally speaking, this Holiday Inn had the worst food I'd ever had.  Coffee was hot which was great!  Front desk employees were great and the housekeeping team was fast and efficient.  Overall my stay was fine.  Quick wifi which I also needed as I was working one of the two days I was there.  Quiet rooms with fast moving elevators.  I had a fine stay and would return again should we ever end up in the Katy area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r274812145-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -691,9 +1045,6 @@
   </si>
   <si>
     <t>Long story short, housekeeping stole from me, manager did nothing!! He fought with me and basically told me I misplaced my items and they didn't steal from me. He stated he does an extensive background check on all his employees. Corporate is handling it now! MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2015</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
@@ -734,6 +1085,51 @@
 I highly recommend this hotel if...I am a Platinum Elite a member of the HIG and this hotel should be a training model for the HIE chain. It has exceptionally clean, large comfortable rooms with very comfortable beds. The bathrooms are like new with everything well stocked. Everything in the mini kitchen was clean and worked as it should.The entire staff are all professional, courteous, friendly and went out of their way to make our stay one to remember. It has the usual free breakfast with many choices for everyone to choose from with a large very clean breakfast area with a friendly, smiling and attentive lady keeping everything clean and hot. We chose this hotel as our hotel "Headquarters" for a family wedding nearby. Easy access to the Katy Thruway with numerous restaurants within walking distance, 2 of which are in the hotel parking lot. Many others (approx 20) of all food groups are just across the street. Lots of shopping and things to do within a 3 mile radius and Katy Mills Mall with a large Bass Pro Shop about 10 minutes away. We were a group of about 40 people, mostly all from out of state, many of which had not stayed at a HIE Hotel before and not one of them could find a negative to say about their stay. The were very impressed and I encouraged most of them to join the rewards program.I highly recommend this hotel if you are in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r256444353-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>256444353</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Best Place to Stay for Business</t>
+  </si>
+  <si>
+    <t>The location is perfect, with easy access to energy corridor of Houston. Lots of places to shop and dine within 3 miles radius. Katy Mills mall is within a 10 mins drive. The service at the hotel is outstanding and the staff are excellent. Hotel amenities are good and the condition of the hotel room is new. For the last 2 years, I have been staying at this place and always like to come back here. I am a Houstonian, who is now on an work assignment in SE Asia, with frequent visits back to Katy &amp; Houston. Thanks for making my stay comfortable and enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Jim_HX5133JA, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>The location is perfect, with easy access to energy corridor of Houston. Lots of places to shop and dine within 3 miles radius. Katy Mills mall is within a 10 mins drive. The service at the hotel is outstanding and the staff are excellent. Hotel amenities are good and the condition of the hotel room is new. For the last 2 years, I have been staying at this place and always like to come back here. I am a Houstonian, who is now on an work assignment in SE Asia, with frequent visits back to Katy &amp; Houston. Thanks for making my stay comfortable and enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r254460197-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>254460197</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Below average for HIE</t>
+  </si>
+  <si>
+    <t>Small glitches at this particular location added up to a slightly below average HIE experience:Loose toilet seat.Scuffs and marks in various places.A/C fan could not be set to "always on" to mask noise.No sleep mode on TV.No fruit in breakfast room.Sickeningly over-perfumed stairways.MoreShow less</t>
+  </si>
+  <si>
+    <t>Small glitches at this particular location added up to a slightly below average HIE experience:Loose toilet seat.Scuffs and marks in various places.A/C fan could not be set to "always on" to mask noise.No sleep mode on TV.No fruit in breakfast room.Sickeningly over-perfumed stairways.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r253730465-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -776,12 +1172,6 @@
     <t>This hotel is newer and conviently location to the entire west side of houston, or if you need to drive downtown.  I was also within an hour of IAH as well.  Staff had a great attitude.   The shower was good and the breakfast was typical for this grade of hotel.  MoreShow less</t>
   </si>
   <si>
-    <t>Jim_HX5133JA, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded February 28, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 28, 2015</t>
-  </si>
-  <si>
     <t>This hotel is newer and conviently location to the entire west side of houston, or if you need to drive downtown.  I was also within an hour of IAH as well.  Staff had a great attitude.   The shower was good and the breakfast was typical for this grade of hotel.  More</t>
   </si>
   <si>
@@ -809,6 +1199,51 @@
     <t>When visiting Houston area don't stay here if you have business towards downtown Houston. The traffic of getting to a business meeting can be a headache. If you have business in the general area of the hotel, then it should not be so bad. The hotel was basic. Don't have high expectations. It is just a place to stay while you are in town.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r248480496-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>248480496</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Pleasant hotel.</t>
+  </si>
+  <si>
+    <t>We hung our hats here for four nights and it was comfortable.  The rooms are big and clean.  Nice toiletries in the bathroom.  Clean lobby.  The breakfast was mainly processed foods, but they did have Chobani Greek yogurt.  Note that the swimming pool is outside.  That was disappointing as we couldn't use it due to the cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>We hung our hats here for four nights and it was comfortable.  The rooms are big and clean.  Nice toiletries in the bathroom.  Clean lobby.  The breakfast was mainly processed foods, but they did have Chobani Greek yogurt.  Note that the swimming pool is outside.  That was disappointing as we couldn't use it due to the cold.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r241811313-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>241811313</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>MOLD MOLD  MOLD!!!!</t>
+  </si>
+  <si>
+    <t>I don't often write reviews but find it necessary due to unsatisfying conditions at the Holiday Inn Express in Katy. We checked in on Thanksgiving evening (around 8pm) only to find the room we were assigned had a distinct and pervasive mold smell.  I tried to use the phone in the room to call the desk clerk but found that the phone did not work.  Fortunately, I had a mobile phone available so I was able to call the hotel.  I talked to a female and shee told me that there was only 1 other room available and that was on the 4th floor.  I found this curious since there were only 5 cars in the entire parking lot.  Since unpacking had already occurred with the other member of my party, that was not a good solution; however , I wanted to write this review because both of these issues (mold smell and non working phone) are safety issues.  I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2014</t>
+  </si>
+  <si>
+    <t>I don't often write reviews but find it necessary due to unsatisfying conditions at the Holiday Inn Express in Katy. We checked in on Thanksgiving evening (around 8pm) only to find the room we were assigned had a distinct and pervasive mold smell.  I tried to use the phone in the room to call the desk clerk but found that the phone did not work.  Fortunately, I had a mobile phone available so I was able to call the hotel.  I talked to a female and shee told me that there was only 1 other room available and that was on the 4th floor.  I found this curious since there were only 5 cars in the entire parking lot.  Since unpacking had already occurred with the other member of my party, that was not a good solution; however , I wanted to write this review because both of these issues (mold smell and non working phone) are safety issues.  I would not recommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r234803830-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -881,6 +1316,81 @@
     <t>We stopped at the Holiday Inn Katy by chance on our 19 day road trip from Miami to Los Angeles. The hotel was very good. The service was excellent, the room was comfortable, and clean and spotless as was the bathroom. the price was fair, and it was the best example out of the 3/4 holiday inn's we stayed at on the trip.Solid free wifi. The location is next to the I-10, and convenient as you'd expect, but far enough away that road noise as not an issue. What set this apart from the other interstate hotels/motels we stayed at was the restaurant complex opposite the hotel, a dozen or so restaurants and bars spoiling you for choice. Recommended as a solid choice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r230954638-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>230954638</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Comfy King Bed Suite Room and Friendly Staff</t>
+  </si>
+  <si>
+    <t>Stayed here and I liked this hotel.
+Its location is very convenient as it is only walking distance to some good restaurants in Katy area.
+The parking space is big, so you don't need to worry about it when you are driving a car.
+Greeted with enthusiastic smile by the lady at the front desk (don't remember her name, but she's an African American lady from Philadelphia).  The check in was smooth and easy and she granted me a extended check out till 2 pm the next day.
+The room was large and the bed was very comfortable.  I literary slept really good there!
+Its got a microwave and small fridge - I left a family size box of good lasagna there though :(
+When I got there, the hotel faced an issue with the wifi connection.  This was like the second time in Houston's hotels that I had to face the same issue.  But the IT staff had it recovered within an hour and then wifi worked really well and fast.
+I didn't try the breakfast during my stay as I rather slept in than woke up before 10 am during the weekend.  So I can't comment on that.
+The hotel had limited stroller to carry luggage.  Hence, I had to stroll my 3 suitcases myself with a help of my friend.
+A bell boy was non existent.  And I guess this was just normal as I stayed at...Stayed here and I liked this hotel.Its location is very convenient as it is only walking distance to some good restaurants in Katy area.The parking space is big, so you don't need to worry about it when you are driving a car.Greeted with enthusiastic smile by the lady at the front desk (don't remember her name, but she's an African American lady from Philadelphia).  The check in was smooth and easy and she granted me a extended check out till 2 pm the next day.The room was large and the bed was very comfortable.  I literary slept really good there!Its got a microwave and small fridge - I left a family size box of good lasagna there though :(When I got there, the hotel faced an issue with the wifi connection.  This was like the second time in Houston's hotels that I had to face the same issue.  But the IT staff had it recovered within an hour and then wifi worked really well and fast.I didn't try the breakfast during my stay as I rather slept in than woke up before 10 am during the weekend.  So I can't comment on that.The hotel had limited stroller to carry luggage.  Hence, I had to stroll my 3 suitcases myself with a help of my friend.A bell boy was non existent.  And I guess this was just normal as I stayed at Four Points and Candlewood as well prior to trying this hotel and they didn't have a bell boy to help get your luggage to your room too.So yes, I would recommend this hotel if you would like to stay at a good hotel nearby great restaurants in Katy.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded October 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here and I liked this hotel.
+Its location is very convenient as it is only walking distance to some good restaurants in Katy area.
+The parking space is big, so you don't need to worry about it when you are driving a car.
+Greeted with enthusiastic smile by the lady at the front desk (don't remember her name, but she's an African American lady from Philadelphia).  The check in was smooth and easy and she granted me a extended check out till 2 pm the next day.
+The room was large and the bed was very comfortable.  I literary slept really good there!
+Its got a microwave and small fridge - I left a family size box of good lasagna there though :(
+When I got there, the hotel faced an issue with the wifi connection.  This was like the second time in Houston's hotels that I had to face the same issue.  But the IT staff had it recovered within an hour and then wifi worked really well and fast.
+I didn't try the breakfast during my stay as I rather slept in than woke up before 10 am during the weekend.  So I can't comment on that.
+The hotel had limited stroller to carry luggage.  Hence, I had to stroll my 3 suitcases myself with a help of my friend.
+A bell boy was non existent.  And I guess this was just normal as I stayed at...Stayed here and I liked this hotel.Its location is very convenient as it is only walking distance to some good restaurants in Katy area.The parking space is big, so you don't need to worry about it when you are driving a car.Greeted with enthusiastic smile by the lady at the front desk (don't remember her name, but she's an African American lady from Philadelphia).  The check in was smooth and easy and she granted me a extended check out till 2 pm the next day.The room was large and the bed was very comfortable.  I literary slept really good there!Its got a microwave and small fridge - I left a family size box of good lasagna there though :(When I got there, the hotel faced an issue with the wifi connection.  This was like the second time in Houston's hotels that I had to face the same issue.  But the IT staff had it recovered within an hour and then wifi worked really well and fast.I didn't try the breakfast during my stay as I rather slept in than woke up before 10 am during the weekend.  So I can't comment on that.The hotel had limited stroller to carry luggage.  Hence, I had to stroll my 3 suitcases myself with a help of my friend.A bell boy was non existent.  And I guess this was just normal as I stayed at Four Points and Candlewood as well prior to trying this hotel and they didn't have a bell boy to help get your luggage to your room too.So yes, I would recommend this hotel if you would like to stay at a good hotel nearby great restaurants in Katy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r216265067-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>216265067</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Typical for Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>We were at the hotel for a very quick overnight event in Cypress and this location was great.  Right on I-10 and very easy on/off the freeway.  Also, at this same exit there are MANY different eating places with just about every type of food you could want from Tex-Mex, to BBQ, Asian, Steak &amp; Shake, and Country Cookin'.  Most are chains, but good for famlies traveling.
+The hotel had a strange odor when we walked into the lobby.  It must have been bad if the two teenagers with me also noticed. It was kind of a cross between smoke and something that had been left "wet" for too long.  Just kind of an old, moldy smell.  It wasn't terrible, but certainly noticable.  However, the lobby and breakfast/common areas were nice and seemed to have been recently remodeled.  The person at reception was pleasant and welciming, but gave us keys for the wrong room and once we got up to our room we had to go back down and get correct keys.
+The room was clean and seemed to have all the usual accoutrements.  Linens and towels were good and the A/C worked extremely well.  We were on the front of the hotel and did not hear much traffic noise nor noise from inside the hotel.
+Breakfast was the standard HIEx items but everything was full and had many varieties of each item...several kinds of yogurt, several cereals, and 2-3...We were at the hotel for a very quick overnight event in Cypress and this location was great.  Right on I-10 and very easy on/off the freeway.  Also, at this same exit there are MANY different eating places with just about every type of food you could want from Tex-Mex, to BBQ, Asian, Steak &amp; Shake, and Country Cookin'.  Most are chains, but good for famlies traveling.The hotel had a strange odor when we walked into the lobby.  It must have been bad if the two teenagers with me also noticed. It was kind of a cross between smoke and something that had been left "wet" for too long.  Just kind of an old, moldy smell.  It wasn't terrible, but certainly noticable.  However, the lobby and breakfast/common areas were nice and seemed to have been recently remodeled.  The person at reception was pleasant and welciming, but gave us keys for the wrong room and once we got up to our room we had to go back down and get correct keys.The room was clean and seemed to have all the usual accoutrements.  Linens and towels were good and the A/C worked extremely well.  We were on the front of the hotel and did not hear much traffic noise nor noise from inside the hotel.Breakfast was the standard HIEx items but everything was full and had many varieties of each item...several kinds of yogurt, several cereals, and 2-3 hot items.  The server in this area was very friendly and kept the tables clean when guests would leave.  My only complaint was that the coffee was really bad.  I am not a coffee snob (well not much of one) but this was like warm water.  I had to stop and get something better as soon as we got on the road.  Not sure I would stay here again, simply due to the smell.  But, the experience was average.  No big problems or concerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>We were at the hotel for a very quick overnight event in Cypress and this location was great.  Right on I-10 and very easy on/off the freeway.  Also, at this same exit there are MANY different eating places with just about every type of food you could want from Tex-Mex, to BBQ, Asian, Steak &amp; Shake, and Country Cookin'.  Most are chains, but good for famlies traveling.
+The hotel had a strange odor when we walked into the lobby.  It must have been bad if the two teenagers with me also noticed. It was kind of a cross between smoke and something that had been left "wet" for too long.  Just kind of an old, moldy smell.  It wasn't terrible, but certainly noticable.  However, the lobby and breakfast/common areas were nice and seemed to have been recently remodeled.  The person at reception was pleasant and welciming, but gave us keys for the wrong room and once we got up to our room we had to go back down and get correct keys.
+The room was clean and seemed to have all the usual accoutrements.  Linens and towels were good and the A/C worked extremely well.  We were on the front of the hotel and did not hear much traffic noise nor noise from inside the hotel.
+Breakfast was the standard HIEx items but everything was full and had many varieties of each item...several kinds of yogurt, several cereals, and 2-3...We were at the hotel for a very quick overnight event in Cypress and this location was great.  Right on I-10 and very easy on/off the freeway.  Also, at this same exit there are MANY different eating places with just about every type of food you could want from Tex-Mex, to BBQ, Asian, Steak &amp; Shake, and Country Cookin'.  Most are chains, but good for famlies traveling.The hotel had a strange odor when we walked into the lobby.  It must have been bad if the two teenagers with me also noticed. It was kind of a cross between smoke and something that had been left "wet" for too long.  Just kind of an old, moldy smell.  It wasn't terrible, but certainly noticable.  However, the lobby and breakfast/common areas were nice and seemed to have been recently remodeled.  The person at reception was pleasant and welciming, but gave us keys for the wrong room and once we got up to our room we had to go back down and get correct keys.The room was clean and seemed to have all the usual accoutrements.  Linens and towels were good and the A/C worked extremely well.  We were on the front of the hotel and did not hear much traffic noise nor noise from inside the hotel.Breakfast was the standard HIEx items but everything was full and had many varieties of each item...several kinds of yogurt, several cereals, and 2-3 hot items.  The server in this area was very friendly and kept the tables clean when guests would leave.  My only complaint was that the coffee was really bad.  I am not a coffee snob (well not much of one) but this was like warm water.  I had to stop and get something better as soon as we got on the road.  Not sure I would stay here again, simply due to the smell.  But, the experience was average.  No big problems or concerns.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r212177940-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -938,6 +1448,39 @@
     <t>Went to Katy for a business trip and stayed 4 nights at this hotel.Best experience ever. I was received by the pm receptionist who had a huge smile in her face and was just so happy to help me. This was great since I had been at airports for 12 hrs with 2 delayed flights. Room was so comfy &amp; clean.Breakfast was always hot and looked organized.Gym with towels/water.Business center with printer working.In my stay I received a bunch of personal packages by mail. Front desk ladies had everything ready when I arrived.Really no complaints...this hotel is just great :)</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r209622442-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>209622442</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Desk Clerk!</t>
+  </si>
+  <si>
+    <t>Dora at the front desk is intelligent, efficient, and friendly.  If I owned a hotel, she'd be the first one I'd hire.  Thanks, Management, for hiring and training great people like Dora.  The rooms are recently remodeled and look great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r208069169-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>208069169</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Very convenient</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located to restaurants and shopping. It is a clean little hotel with friendly staff. Saturday morning breakfast was outstanding for this level hotel. We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r205087345-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -953,9 +1496,6 @@
     <t>Not realising it was OTC week I didn't understand why none of my usual choices were available! Ended up here and it was a quite reasonable stay, good staff and breakfast, noisy air conditioner and even though the firm pillows were too soft it didn't spoil the stay. Good location for food with various choices at hand, you can even walk to them if you're eccentric or British.</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r197974474-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1548,57 @@
   </si>
   <si>
     <t>I have stayed here for 4 nights once in November and once in December. Both stays were comfortable -- the rooms clean, well appointed, and mostly quiet.  I did not eat at the breakfast buffet -- I generally prefer not to.  The coffee at the buffet was okay.   My only complaint was that the last stay the energetic cleaning crew threw away the TSA approved plastic bag for my liquids and gels.  When I called down to the front desk to see if they had a replacement, the front desk staff had no idea what I was talking about and asked if a laundry bag would do.  No, only a quart sized zip closure bag works.  I had time to stop at the store, but if I was heading straight to the airport it would have been a problem.  A little training is in order!  Otherwise, the stay was just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r186954610-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>186954610</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Clean and great location.</t>
+  </si>
+  <si>
+    <t>We experienced a great stay in a nice and clean hotel. Can't ask for much more than that. Service was very welcoming also. One thing we loved about this hotel was the location. Just down the road from Katy Mills mall and lots of restaurants in the area. As a priority club member, this was a wonderful stay for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tracey H, Director of Sales at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>We experienced a great stay in a nice and clean hotel. Can't ask for much more than that. Service was very welcoming also. One thing we loved about this hotel was the location. Just down the road from Katy Mills mall and lots of restaurants in the area. As a priority club member, this was a wonderful stay for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r186023318-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>186023318</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Clean, updated look</t>
+  </si>
+  <si>
+    <t>It may be vain to judge a book by its cover, but that's just how I am when I stay at a hotel.  Rarely am I there more than a couple evenings to experience all the amenities.  I just want a place that's clean, has a comfortable bed, quiet room, and good location.  This place meets those standards.  I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Tracey H, Director of Sales at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded November 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2013</t>
+  </si>
+  <si>
+    <t>It may be vain to judge a book by its cover, but that's just how I am when I stay at a hotel.  Rarely am I there more than a couple evenings to experience all the amenities.  I just want a place that's clean, has a comfortable bed, quiet room, and good location.  This place meets those standards.  I'd stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r183425744-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
@@ -1092,6 +1683,51 @@
     <t>This hotel is fairly new. I booked with Name your own price with priceline but I did not get a great deal. It was $90.00 plus fees and taxes.The hotel room was fine and it was clean. I had requested a non smoking room but I was given a smoking room. At check in they told me they were full and were unable to change rooms. I did not make a big deal out of it and just took the smoking room. It did smell a little of smoke, but not too bad.The breakfast was very good! They had lots of choices including scrambled eggs, sausages, pancakes, fruit, yogurt, cereal and juices and coffee.The people in the breakfast room were extremely friendly and helpful!The pool area was small but it was clean and had plenty of chairs. Overall, we enjoyed our stay at the Holiday Inn Express in Katy, Texas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r175785764-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>175785764</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Very Welcoming</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Holiday Inn properties and this is the first time I've ever had a star with my status level hung on my hotel room door.Even though it's right off I-10, the rooms are very quiet (except when some idiot on a crotch rocket tries to get to 100 on the outer road).There are a myriad of dining choices, many within walking distance.  Everything from pho to Chinese to steak to New Orleans style food is literally just a minute or two from the hotel.The rooms are very clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Holiday Inn properties and this is the first time I've ever had a star with my status level hung on my hotel room door.Even though it's right off I-10, the rooms are very quiet (except when some idiot on a crotch rocket tries to get to 100 on the outer road).There are a myriad of dining choices, many within walking distance.  Everything from pho to Chinese to steak to New Orleans style food is literally just a minute or two from the hotel.The rooms are very clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r169278197-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>169278197</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This is the second stay we have stayed and I think they get better each time. Very, very clean and modern hotel. The location is perfect because it is in the same parking lot as two great restaurant and just across the street there is a square that is filled with restaurants and bars. Of course my wife says it is perfect since it is just a few miles from Katy Mills mall. Front desk staff is superb and the lady that takes care of breakfast in the morning is top notch, she will even make you pancakes! We always stay in a king suite because of the living room/mini kitchen and it is perfect. If you need to stay in Katy for any reason, you can't beat this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>nick P, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded July 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2013</t>
+  </si>
+  <si>
+    <t>This is the second stay we have stayed and I think they get better each time. Very, very clean and modern hotel. The location is perfect because it is in the same parking lot as two great restaurant and just across the street there is a square that is filled with restaurants and bars. Of course my wife says it is perfect since it is just a few miles from Katy Mills mall. Front desk staff is superb and the lady that takes care of breakfast in the morning is top notch, she will even make you pancakes! We always stay in a king suite because of the living room/mini kitchen and it is perfect. If you need to stay in Katy for any reason, you can't beat this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r167692019-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1107,9 +1743,6 @@
     <t>Check in was easy, room was clean and comfy. Pillows were fresh. They were able to get me a nonsmoking room.! Breakfast was great, wi fi worked as well. I also really appreciate the USA today delivered to my door.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>Check in was easy, room was clean and comfy. Pillows were fresh. They were able to get me a nonsmoking room.! Breakfast was great, wi fi worked as well. I also really appreciate the USA today delivered to my door.More</t>
   </si>
   <si>
@@ -1164,6 +1797,48 @@
     <t>I stayed here twice, and each time I made my reservation a week or more ahead, and each time they claimed they lost it. I'm a platinum member and never got an upgrade, or perk. The pool area is just so so, and the same with the breakfast. I'm going to give up on this hotel, and go down the street to the garden inn. I tried to contact the manager with no luck. If this continues I'm giving up on HI.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r160161982-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>160161982</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>We recently stayed at this property overnight during a dance competition. I was concerned at the proximity to the venue; however, with the Grand Parkway so close and easy to get to it was the perfect place for my daughter and I to stay. There were several good restaurants close by and the morning breakfast was excellent. Nothing bad to say;in fact the staff were very helpful and organized. We will be choosing this hotel in the future for more dance competitions.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>We recently stayed at this property overnight during a dance competition. I was concerned at the proximity to the venue; however, with the Grand Parkway so close and easy to get to it was the perfect place for my daughter and I to stay. There were several good restaurants close by and the morning breakfast was excellent. Nothing bad to say;in fact the staff were very helpful and organized. We will be choosing this hotel in the future for more dance competitions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r156997071-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>156997071</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>New, Friendly and Well Located</t>
+  </si>
+  <si>
+    <t>I stayed here with the family for a few nights while visiting friends prior to a business trip. The hotel is very clean, and new and the staff were very friendly. The breakfast area is large and great for kids. The room was not huge for having 2 kids with us, but we didnt spend much time in it anyway. The location was great just off Hwy 10 for visiting the malls and restaurants a little closer to downtown. A lot of great restaurants also withing walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stayed here with the family for a few nights while visiting friends prior to a business trip. The hotel is very clean, and new and the staff were very friendly. The breakfast area is large and great for kids. The room was not huge for having 2 kids with us, but we didnt spend much time in it anyway. The location was great just off Hwy 10 for visiting the malls and restaurants a little closer to downtown. A lot of great restaurants also withing walking distance.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r155320049-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1911,45 @@
     <t>The hotel's location is easy to find, just off of the highway. The room was expensive for what we received - with a AAA rate and PC Gold standing, we paid $125/night. The bathroom had a huge plastered-over hole in the wall that was left unpainted - tacky. The breakfast did not offer any type of fruit, not even an apple. I would not hurry back to this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r143582114-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143582114</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Extra charges in my Credit Card</t>
+  </si>
+  <si>
+    <t>I'm stayed at the Holiday Inn Express in Katy, Tx. And I was the victim of a moral insult from Mr. Jim Hernandez (Guest Services &amp; Sales Manager at Holiday Inn Express Hotel &amp; Suites, Katy TX.); They made ​​extra charges to my credit card (around $300 usd) and after calling for clarification I was accused of stealing sheets. I've never stolen anything and therefore call the hotel several times and contact them, but nobody believed me. Where is the presumption of innocence? As you may treat the client as well?.In the hotel were very rude and ironically I was asked to return the sheets, as I return something I never had? I expected a letter of apology and reimbursement of unjustified charges made ​​to my credit but the ladies from IHG Guest Relations did not help.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I'm stayed at the Holiday Inn Express in Katy, Tx. And I was the victim of a moral insult from Mr. Jim Hernandez (Guest Services &amp; Sales Manager at Holiday Inn Express Hotel &amp; Suites, Katy TX.); They made ​​extra charges to my credit card (around $300 usd) and after calling for clarification I was accused of stealing sheets. I've never stolen anything and therefore call the hotel several times and contact them, but nobody believed me. Where is the presumption of innocence? As you may treat the client as well?.In the hotel were very rude and ironically I was asked to return the sheets, as I return something I never had? I expected a letter of apology and reimbursement of unjustified charges made ​​to my credit but the ladies from IHG Guest Relations did not help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r143369152-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143369152</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Clean and like new</t>
+  </si>
+  <si>
+    <t>Good value hotel with plenty of dining options nearby.  And it is less than a 10 minute drive to Katy Mills Mall. The front counter staff was helpful, and everything was neat and clean. I would definitely recommend this place to anyone looking for a decent rate, and pleasant stay.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r141697257-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +2001,45 @@
     <t>We booked this hotel for a couple of nights before flying home to London. the staff are friendly the hotel is very clean and the breakfast is good. we were able to check in online in their business centre and nothing was too much trouble. the local is close to several restaurants and the outlet malls for that last minute shopping, just perfect right down to the free fruit in the foyer.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r140640503-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>140640503</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Visiting Mom and Daughter</t>
+  </si>
+  <si>
+    <t>While we visited my Mom and Daughter in East TX we stayed at this place and it was great! The rooms were clean spacious and bed was very comfortable. The previous hotel we stayed at while visiting my mother and daughter was great as well and it was nice to have 2 great hotels in a row for our stays. This hotel had a very helpful staff and service was excellent. It's great that both my Mother and Daughter who's attending college are in the same town and she cares for my mother while we're away. Thanks to this hotel and we will definitely be back here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r140297099-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>140297099</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Like New, not bad for a 3 star hotel</t>
+  </si>
+  <si>
+    <t>I will confess I'm a traditional 4 or 5 star hotel fan.  I expected to be miserable and it really wasn't bad at all.  I had a budget and used Hotwire for the booking. ($75 per night)  This hotel is on the very edge of the Energy Corridor.  (bad location in my opinion, but that's a Hotwire issue) It seemed to be in brand new condition, and appeared very clean everywhere.  My room was nice enough and was pretty spacious.  I found the desk area and internet to work out nicely.  The beds had a pillow top and were ok - not great, but not bad.  The room did smell of smoke by the doorway, but once inside I didn't notice.Hotel does sit on the highway, although seemed quiet.  There is a barbecue restaurant in the lot that was fast casual, not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded September 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2012</t>
+  </si>
+  <si>
+    <t>I will confess I'm a traditional 4 or 5 star hotel fan.  I expected to be miserable and it really wasn't bad at all.  I had a budget and used Hotwire for the booking. ($75 per night)  This hotel is on the very edge of the Energy Corridor.  (bad location in my opinion, but that's a Hotwire issue) It seemed to be in brand new condition, and appeared very clean everywhere.  My room was nice enough and was pretty spacious.  I found the desk area and internet to work out nicely.  The beds had a pillow top and were ok - not great, but not bad.  The room did smell of smoke by the doorway, but once inside I didn't notice.Hotel does sit on the highway, although seemed quiet.  There is a barbecue restaurant in the lot that was fast casual, not bad.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r138874758-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1347,15 +2100,54 @@
     <t xml:space="preserve">Excellent hotel and Staff! Top notch everything. The room was very clean comfortable... Within walking distance of Texas Roadhouse. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r130711100-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>130711100</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Good only on certain conditions</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend. The first room we were given was on the fourth floor. If you are not a smoker, do not stay on that floor. True, only half of the floor is smoking, but you will find that you will smell smoke in your room even if you are on the opposite side of the hotel floor. We were moved the next morning to the first floor. What we later found out was, churches hold services in the meeting rooms downstairs. So if you stay in those rooms, you will hear everything loud and clear. This is not a knock on churches, but the night service lasted until 10 PM and was loud the entire time. I could hear every word spoken in the microphone. Other than that, the personnel working here are very friendly and the hotel is very nice. Knowing what I know now, I would gladly return, just not stay on the 4th floor or the first floor close to the meeting rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend. The first room we were given was on the fourth floor. If you are not a smoker, do not stay on that floor. True, only half of the floor is smoking, but you will find that you will smell smoke in your room even if you are on the opposite side of the hotel floor. We were moved the next morning to the first floor. What we later found out was, churches hold services in the meeting rooms downstairs. So if you stay in those rooms, you will hear everything loud and clear. This is not a knock on churches, but the night service lasted until 10 PM and was loud the entire time. I could hear every word spoken in the microphone. Other than that, the personnel working here are very friendly and the hotel is very nice. Knowing what I know now, I would gladly return, just not stay on the 4th floor or the first floor close to the meeting rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r130302796-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>130302796</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>It was the best stay. My friend, her daugther and I stay fro tonights and it was awesome. My friends child left her cup and Griselda was so helpfull. Next time we come back we will defenately be staying there. Awesome staff and service. Thanks, for making our stay so wonderful.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r130302695-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
     <t>130302695</t>
   </si>
   <si>
-    <t>05/20/2012</t>
-  </si>
-  <si>
     <t>Just check your bed sheets</t>
   </si>
   <si>
@@ -1365,9 +2157,6 @@
     <t>hiexs6633, Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 8, 2012</t>
   </si>
   <si>
-    <t>Responded June 8, 2012</t>
-  </si>
-  <si>
     <t>We went just for the weekend, as you walk in your are greeted so kindly and smells like new! The Hotel at a great location lots of places to eat at, and gas station down the street ! Hotel is quiet despite it being off the freeway ! Only downfall the extra sheets for the sleeper were very dirty, asked twice for a new set. Very safe location.!!!More</t>
   </si>
   <si>
@@ -1407,12 +2196,45 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>hiexs6633, General Manager at Holiday Inn Express Hotel &amp; Suites Katy, responded to this reviewResponded June 8, 2012</t>
-  </si>
-  <si>
     <t>Fast check-in by friendly staff.  Large, comfortable room.  Choice of TV programming could have been better and Wi-Fi was slow.  Great breakfast just like my previous stay.  Check-out was a little stressful.  There were only 2 self-serve baggage carts for the entire motel.  Not enough for a property this size.  Waited for 30 minutes for one to be available.  Never got one.  Ended up having to make several trips from the 3rd floor to the car carrying everything.  Maids hijacked the elevators with their carts during the prime check-out time.  My stay didn't end on a good note.  Otherwise this is a good place to stay when in Katy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r123463902-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123463902</t>
+  </si>
+  <si>
+    <t>01/22/2012</t>
+  </si>
+  <si>
+    <t>Spacious and Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here for a week during a business conference. This hotel is awesome!  My room was very spacious and clean.  Nice, wide flat screen TV, Comfortable bed and quiet.  The staff were super friendly and courteous and I had no problems with anything.  The breakfast area was abundantly spacious, whereas compared to other hotles, it is small and cramped. Continental breakfast was great with plenty of options on the bar.  Additionally, it is close to area restaurants and shopping venues. Cannot go wrong staying here.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r122754989-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>122754989</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Second time here</t>
+  </si>
+  <si>
+    <t>Our second visit was like the first-very nice. This is a new hotel that is clean and well run. The room was  quiet, but I should say that there weren't many people on our floor. The choice of firm and soft pillows is a nice touch. The breakfast room is attractive and the choices are good, especially the sweet rolls.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r118820796-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +2281,48 @@
   </si>
   <si>
     <t>The hotel is located on I-10.  Fast, friendly check-in/out.  Room was very comfortable.  The free breakfast was outstanding and the dining room was spotless.  Very nice lady keeping the breakfast buffet stocked full of every type breakfast food you would want.  Can't say too much about the friendly staff.  Without exception they would greet you with a smile and a hello.  I would highly recommend this hotel if staying in Katy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r101311596-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>101311596</t>
+  </si>
+  <si>
+    <t>03/23/2011</t>
+  </si>
+  <si>
+    <t>Amazing staff, service, clean, and best of all: BRAND NEW!</t>
+  </si>
+  <si>
+    <t>I stayed here and the hotel is really clean and pretty! The best Holiday Inn I have stayed in so far! The rooms are all brand new and the continental breakfast is literally mind-blowing. It was like eating at a restaurant for breakfast. They had no problems when I requested late check out and the staff was very proffesional and friendly. Even the maids were nice since each time I left the room when they came to clean, they would always smile. I think the biggest plus for me was the location and as an added bonus, there is cheddars like 10 feet from the hotel! I didn't have a car and had to rely on someone else to pick me up everyday but for the three nights I was here, I ate at Cheddars every single night! I am not sure why the hotel is ranked so low since I had an amazing time here. I asked the staff and turns out that they built the hotel sometime last year so that explains why it is low on TripAdvisor. Anyway, this is a completely new Holiday Inn and I would recommend all my friends and family to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I stayed here and the hotel is really clean and pretty! The best Holiday Inn I have stayed in so far! The rooms are all brand new and the continental breakfast is literally mind-blowing. It was like eating at a restaurant for breakfast. They had no problems when I requested late check out and the staff was very proffesional and friendly. Even the maids were nice since each time I left the room when they came to clean, they would always smile. I think the biggest plus for me was the location and as an added bonus, there is cheddars like 10 feet from the hotel! I didn't have a car and had to rely on someone else to pick me up everyday but for the three nights I was here, I ate at Cheddars every single night! I am not sure why the hotel is ranked so low since I had an amazing time here. I asked the staff and turns out that they built the hotel sometime last year so that explains why it is low on TripAdvisor. Anyway, this is a completely new Holiday Inn and I would recommend all my friends and family to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r92225685-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>92225685</t>
+  </si>
+  <si>
+    <t>01/08/2011</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay!!!</t>
+  </si>
+  <si>
+    <t>My Aunt and I were in town for my Dad;s funeral...we decided to stay at this hotel to keep mom's house less crowded....I am so glad we stayed at the Holiday Inn Express in Katy, Tx...because it was 8  months old, everything was new and still shiney...you could tell all the workers took pride in their work at this Hotel...The room was a nice size...beds comfortable, everything clean...room smelled new still...even though it is right off the Hwy 10 the room was quiet.  Big 42in t.v. microwave, fridge,  coffee maker and small sink in the kitchenette. Texas Roadhouse to the left of you and Cheddars to the right...does it get any better?  I would definitely stay here again...in fact we stayed at two other Holiday Inns  on this trip and had the same experience...I no longer look for Motel 6 signs....it is Holiday Inn Express all the way! 2 queen bed rooms average around $115 with tax....I must also say the breakfast was awesome every morning...I was excited to see they had my favorite yogurt...yummy danishes....a new pancake machine that kicks out hot pancakes in 45 seconds...sausage, bacon, omlets, scrambled eggs, cereal,and  fruit just to name a few.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>My Aunt and I were in town for my Dad;s funeral...we decided to stay at this hotel to keep mom's house less crowded....I am so glad we stayed at the Holiday Inn Express in Katy, Tx...because it was 8  months old, everything was new and still shiney...you could tell all the workers took pride in their work at this Hotel...The room was a nice size...beds comfortable, everything clean...room smelled new still...even though it is right off the Hwy 10 the room was quiet.  Big 42in t.v. microwave, fridge,  coffee maker and small sink in the kitchenette. Texas Roadhouse to the left of you and Cheddars to the right...does it get any better?  I would definitely stay here again...in fact we stayed at two other Holiday Inns  on this trip and had the same experience...I no longer look for Motel 6 signs....it is Holiday Inn Express all the way! 2 queen bed rooms average around $115 with tax....I must also say the breakfast was awesome every morning...I was excited to see they had my favorite yogurt...yummy danishes....a new pancake machine that kicks out hot pancakes in 45 seconds...sausage, bacon, omlets, scrambled eggs, cereal,and  fruit just to name a few.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1605019-r73969390-Holiday_Inn_Express_Hotel_Suites_Katy-Katy_Texas.html</t>
@@ -2102,14 +2966,18 @@
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2132,54 +3000,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2195,56 +3057,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2260,34 +3114,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2298,14 +3152,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>82</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2321,48 +3171,54 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2378,56 +3234,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>96</v>
-      </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2443,7 +3291,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2452,47 +3300,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2508,7 +3352,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2517,43 +3361,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2569,7 +3417,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2578,22 +3426,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
@@ -2608,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2630,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2639,49 +3487,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>134</v>
-      </c>
-      <c r="X12" t="s">
-        <v>135</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2697,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2706,43 +3544,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2758,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2767,47 +3609,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -2823,7 +3665,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2832,49 +3674,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
         <v>149</v>
-      </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2890,7 +3730,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2899,22 +3739,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -2922,20 +3762,24 @@
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -2951,7 +3795,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2960,49 +3804,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -3018,7 +3856,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3027,32 +3865,32 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3061,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -3083,7 +3921,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3092,49 +3930,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="X19" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -3150,7 +3982,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3159,47 +3991,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
@@ -3215,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3224,43 +4052,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -3276,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3285,16 +4119,16 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -3303,25 +4137,25 @@
         <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
@@ -3337,52 +4171,48 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
         <v>213</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" t="s">
-        <v>216</v>
-      </c>
-      <c r="L23" t="s">
-        <v>217</v>
-      </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>218</v>
-      </c>
-      <c r="O23" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
@@ -3398,52 +4228,58 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
         <v>220</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>221</v>
       </c>
-      <c r="J24" t="s">
-        <v>222</v>
-      </c>
-      <c r="K24" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" t="s">
-        <v>224</v>
-      </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>226</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -3459,7 +4295,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3468,32 +4304,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3502,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
         <v>228</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26">
@@ -3524,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3533,49 +4369,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -3591,7 +4427,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3600,49 +4436,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="X27" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
@@ -3658,7 +4488,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3667,49 +4497,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>260</v>
-      </c>
-      <c r="X28" t="s">
-        <v>261</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
@@ -3725,7 +4551,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3734,47 +4560,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
@@ -3790,7 +4612,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3799,43 +4621,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -3851,7 +4679,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3860,43 +4688,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>271</v>
+      </c>
+      <c r="X31" t="s">
+        <v>272</v>
+      </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
@@ -3912,7 +4744,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3921,43 +4753,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>226</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -3973,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3982,49 +4820,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
@@ -4040,7 +4872,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4049,49 +4881,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>290</v>
+      </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35">
@@ -4107,7 +4933,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4116,39 +4942,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>303</v>
+      </c>
+      <c r="X35" t="s">
+        <v>304</v>
+      </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -4164,7 +4998,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4173,45 +5007,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>318</v>
-      </c>
-      <c r="X36" t="s">
-        <v>319</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
@@ -4227,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4236,53 +5068,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>327</v>
-      </c>
-      <c r="X37" t="s">
-        <v>328</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -4298,7 +5120,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4307,34 +5129,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4342,14 +5164,10 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>335</v>
-      </c>
-      <c r="X38" t="s">
-        <v>336</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
@@ -4365,7 +5183,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4374,53 +5192,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="X39" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40">
@@ -4436,7 +5248,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4445,38 +5257,32 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
       </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>3</v>
@@ -4484,14 +5290,10 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>335</v>
-      </c>
-      <c r="X40" t="s">
-        <v>336</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
@@ -4507,7 +5309,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4516,53 +5318,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="X41" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
@@ -4578,7 +5370,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4587,53 +5379,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X42" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="Y42" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
@@ -4649,7 +5435,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4658,49 +5444,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="J43" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
       <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="X43" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
@@ -4716,7 +5500,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4725,53 +5509,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45">
@@ -4787,7 +5565,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4796,53 +5574,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s">
-        <v>97</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="X45" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Y45" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46">
@@ -4858,7 +5632,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4867,53 +5641,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s">
-        <v>398</v>
-      </c>
-      <c r="O46" t="s">
-        <v>67</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="X46" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="Y46" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47">
@@ -4929,7 +5699,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4938,49 +5708,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="J47" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>407</v>
-      </c>
-      <c r="O47" t="s">
-        <v>97</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
         <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48">
@@ -4996,7 +5766,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5005,38 +5775,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
         <v>4</v>
       </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>4</v>
@@ -5044,10 +5808,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>361</v>
+      </c>
+      <c r="X48" t="s">
+        <v>362</v>
+      </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49">
@@ -5063,7 +5831,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5072,39 +5840,47 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>405</v>
+      </c>
+      <c r="X49" t="s">
+        <v>406</v>
+      </c>
       <c r="Y49" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50">
@@ -5120,7 +5896,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5129,53 +5905,47 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K50" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="X50" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51">
@@ -5191,7 +5961,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5200,49 +5970,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="J51" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K51" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>422</v>
+      </c>
+      <c r="X51" t="s">
+        <v>423</v>
+      </c>
       <c r="Y51" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52">
@@ -5258,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5267,37 +6031,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="J52" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K52" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>430</v>
+      </c>
+      <c r="O52" t="s">
+        <v>343</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5305,7 +6067,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53">
@@ -5321,7 +6083,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5330,49 +6092,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J53" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L53" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>85</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="X53" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
@@ -5388,7 +6150,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5397,49 +6159,49 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="O54" t="s">
-        <v>97</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" t="s">
+        <v>447</v>
+      </c>
       <c r="Y54" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55">
@@ -5455,62 +6217,52 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" t="s">
+        <v>451</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" t="s">
         <v>453</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
         <v>454</v>
       </c>
-      <c r="J55" t="s">
+      <c r="O55" t="s">
+        <v>343</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
         <v>455</v>
       </c>
-      <c r="K55" t="s">
+      <c r="X55" t="s">
         <v>456</v>
       </c>
-      <c r="L55" t="s">
+      <c r="Y55" t="s">
         <v>457</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
-        <v>458</v>
-      </c>
-      <c r="O55" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
-        <v>459</v>
-      </c>
-      <c r="X55" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="56">
@@ -5526,40 +6278,40 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>458</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>459</v>
+      </c>
+      <c r="J56" t="s">
+        <v>460</v>
+      </c>
+      <c r="K56" t="s">
         <v>461</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>462</v>
       </c>
-      <c r="J56" t="s">
-        <v>463</v>
-      </c>
-      <c r="K56" t="s">
-        <v>464</v>
-      </c>
-      <c r="L56" t="s">
-        <v>465</v>
-      </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
@@ -5577,7 +6329,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57">
@@ -5593,34 +6345,34 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>463</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J57" t="s">
+        <v>465</v>
+      </c>
+      <c r="K57" t="s">
+        <v>466</v>
+      </c>
+      <c r="L57" t="s">
         <v>467</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>468</v>
-      </c>
-      <c r="J57" t="s">
-        <v>469</v>
-      </c>
-      <c r="K57" t="s">
-        <v>470</v>
-      </c>
-      <c r="L57" t="s">
-        <v>471</v>
-      </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5631,7 +6383,9 @@
       <c r="R57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>5</v>
@@ -5642,7 +6396,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58">
@@ -5658,42 +6412,46 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
         <v>472</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
-        <v>473</v>
-      </c>
-      <c r="J58" t="s">
-        <v>474</v>
-      </c>
-      <c r="K58" t="s">
-        <v>475</v>
-      </c>
-      <c r="L58" t="s">
-        <v>476</v>
-      </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -5705,7 +6463,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59">
@@ -5721,31 +6479,31 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>474</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s">
+        <v>476</v>
+      </c>
+      <c r="L59" t="s">
         <v>477</v>
       </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
         <v>478</v>
-      </c>
-      <c r="J59" t="s">
-        <v>479</v>
-      </c>
-      <c r="K59" t="s">
-        <v>480</v>
-      </c>
-      <c r="L59" t="s">
-        <v>481</v>
-      </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>482</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
@@ -5772,7 +6530,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
@@ -5788,7 +6546,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5797,49 +6555,2818 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="J60" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K60" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L60" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>485</v>
+      </c>
+      <c r="J61" t="s">
+        <v>486</v>
+      </c>
+      <c r="K61" t="s">
+        <v>487</v>
+      </c>
+      <c r="L61" t="s">
+        <v>488</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>489</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
         <v>490</v>
+      </c>
+      <c r="X61" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>494</v>
+      </c>
+      <c r="J62" t="s">
+        <v>495</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
+      </c>
+      <c r="L62" t="s">
+        <v>497</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>499</v>
+      </c>
+      <c r="X62" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>502</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>503</v>
+      </c>
+      <c r="J63" t="s">
+        <v>504</v>
+      </c>
+      <c r="K63" t="s">
+        <v>505</v>
+      </c>
+      <c r="L63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>507</v>
+      </c>
+      <c r="X63" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>511</v>
+      </c>
+      <c r="J64" t="s">
+        <v>512</v>
+      </c>
+      <c r="K64" t="s">
+        <v>513</v>
+      </c>
+      <c r="L64" t="s">
+        <v>514</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>515</v>
+      </c>
+      <c r="O64" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>516</v>
+      </c>
+      <c r="X64" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>519</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>520</v>
+      </c>
+      <c r="J65" t="s">
+        <v>521</v>
+      </c>
+      <c r="K65" t="s">
+        <v>522</v>
+      </c>
+      <c r="L65" t="s">
+        <v>523</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>524</v>
+      </c>
+      <c r="X65" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>527</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>528</v>
+      </c>
+      <c r="J66" t="s">
+        <v>529</v>
+      </c>
+      <c r="K66" t="s">
+        <v>530</v>
+      </c>
+      <c r="L66" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>532</v>
+      </c>
+      <c r="O66" t="s">
+        <v>85</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>533</v>
+      </c>
+      <c r="X66" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s">
+        <v>540</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s">
+        <v>343</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>524</v>
+      </c>
+      <c r="X67" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>532</v>
+      </c>
+      <c r="O68" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>524</v>
+      </c>
+      <c r="X68" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" t="s">
+        <v>553</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>554</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>555</v>
+      </c>
+      <c r="X69" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J70" t="s">
+        <v>560</v>
+      </c>
+      <c r="K70" t="s">
+        <v>561</v>
+      </c>
+      <c r="L70" t="s">
+        <v>562</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>554</v>
+      </c>
+      <c r="O70" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>524</v>
+      </c>
+      <c r="X70" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>564</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>565</v>
+      </c>
+      <c r="J71" t="s">
+        <v>566</v>
+      </c>
+      <c r="K71" t="s">
+        <v>567</v>
+      </c>
+      <c r="L71" t="s">
+        <v>568</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>569</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>570</v>
+      </c>
+      <c r="X71" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>573</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>574</v>
+      </c>
+      <c r="J72" t="s">
+        <v>575</v>
+      </c>
+      <c r="K72" t="s">
+        <v>576</v>
+      </c>
+      <c r="L72" t="s">
+        <v>577</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>578</v>
+      </c>
+      <c r="X72" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>581</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>582</v>
+      </c>
+      <c r="J73" t="s">
+        <v>583</v>
+      </c>
+      <c r="K73" t="s">
+        <v>496</v>
+      </c>
+      <c r="L73" t="s">
+        <v>584</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>569</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>585</v>
+      </c>
+      <c r="X73" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>588</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>589</v>
+      </c>
+      <c r="J74" t="s">
+        <v>590</v>
+      </c>
+      <c r="K74" t="s">
+        <v>591</v>
+      </c>
+      <c r="L74" t="s">
+        <v>592</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>593</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>585</v>
+      </c>
+      <c r="X74" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>596</v>
+      </c>
+      <c r="J75" t="s">
+        <v>597</v>
+      </c>
+      <c r="K75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L75" t="s">
+        <v>599</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>600</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>601</v>
+      </c>
+      <c r="X75" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>604</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>605</v>
+      </c>
+      <c r="J76" t="s">
+        <v>606</v>
+      </c>
+      <c r="K76" t="s">
+        <v>607</v>
+      </c>
+      <c r="L76" t="s">
+        <v>608</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>600</v>
+      </c>
+      <c r="O76" t="s">
+        <v>146</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>524</v>
+      </c>
+      <c r="X76" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>610</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>611</v>
+      </c>
+      <c r="J77" t="s">
+        <v>612</v>
+      </c>
+      <c r="K77" t="s">
+        <v>613</v>
+      </c>
+      <c r="L77" t="s">
+        <v>614</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>615</v>
+      </c>
+      <c r="O77" t="s">
+        <v>85</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>616</v>
+      </c>
+      <c r="X77" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>619</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>620</v>
+      </c>
+      <c r="J78" t="s">
+        <v>621</v>
+      </c>
+      <c r="K78" t="s">
+        <v>622</v>
+      </c>
+      <c r="L78" t="s">
+        <v>623</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>624</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>626</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>627</v>
+      </c>
+      <c r="J79" t="s">
+        <v>628</v>
+      </c>
+      <c r="K79" t="s">
+        <v>629</v>
+      </c>
+      <c r="L79" t="s">
+        <v>630</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>631</v>
+      </c>
+      <c r="O79" t="s">
+        <v>146</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>632</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>633</v>
+      </c>
+      <c r="J80" t="s">
+        <v>634</v>
+      </c>
+      <c r="K80" t="s">
+        <v>635</v>
+      </c>
+      <c r="L80" t="s">
+        <v>636</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>637</v>
+      </c>
+      <c r="O80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>639</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>640</v>
+      </c>
+      <c r="J81" t="s">
+        <v>641</v>
+      </c>
+      <c r="K81" t="s">
+        <v>642</v>
+      </c>
+      <c r="L81" t="s">
+        <v>643</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>637</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>644</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>645</v>
+      </c>
+      <c r="J82" t="s">
+        <v>646</v>
+      </c>
+      <c r="K82" t="s">
+        <v>647</v>
+      </c>
+      <c r="L82" t="s">
+        <v>648</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>637</v>
+      </c>
+      <c r="O82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>650</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>637</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>654</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>655</v>
+      </c>
+      <c r="J84" t="s">
+        <v>656</v>
+      </c>
+      <c r="K84" t="s">
+        <v>657</v>
+      </c>
+      <c r="L84" t="s">
+        <v>658</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>637</v>
+      </c>
+      <c r="O84" t="s">
+        <v>85</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>659</v>
+      </c>
+      <c r="X84" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>662</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>663</v>
+      </c>
+      <c r="J85" t="s">
+        <v>664</v>
+      </c>
+      <c r="K85" t="s">
+        <v>665</v>
+      </c>
+      <c r="L85" t="s">
+        <v>666</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>667</v>
+      </c>
+      <c r="O85" t="s">
+        <v>85</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>668</v>
+      </c>
+      <c r="X85" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>671</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>672</v>
+      </c>
+      <c r="J86" t="s">
+        <v>673</v>
+      </c>
+      <c r="K86" t="s">
+        <v>674</v>
+      </c>
+      <c r="L86" t="s">
+        <v>675</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>676</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>677</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>678</v>
+      </c>
+      <c r="J87" t="s">
+        <v>679</v>
+      </c>
+      <c r="K87" t="s">
+        <v>680</v>
+      </c>
+      <c r="L87" t="s">
+        <v>681</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>682</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>683</v>
+      </c>
+      <c r="J88" t="s">
+        <v>684</v>
+      </c>
+      <c r="K88" t="s">
+        <v>685</v>
+      </c>
+      <c r="L88" t="s">
+        <v>686</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>687</v>
+      </c>
+      <c r="O88" t="s">
+        <v>85</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>688</v>
+      </c>
+      <c r="X88" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>691</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>692</v>
+      </c>
+      <c r="J89" t="s">
+        <v>693</v>
+      </c>
+      <c r="K89" t="s">
+        <v>694</v>
+      </c>
+      <c r="L89" t="s">
+        <v>695</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>687</v>
+      </c>
+      <c r="O89" t="s">
+        <v>343</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>696</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>697</v>
+      </c>
+      <c r="J90" t="s">
+        <v>693</v>
+      </c>
+      <c r="K90" t="s">
+        <v>698</v>
+      </c>
+      <c r="L90" t="s">
+        <v>699</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>700</v>
+      </c>
+      <c r="X90" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>703</v>
+      </c>
+      <c r="J91" t="s">
+        <v>704</v>
+      </c>
+      <c r="K91" t="s">
+        <v>705</v>
+      </c>
+      <c r="L91" t="s">
+        <v>706</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>707</v>
+      </c>
+      <c r="O91" t="s">
+        <v>146</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>708</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>709</v>
+      </c>
+      <c r="J92" t="s">
+        <v>710</v>
+      </c>
+      <c r="K92" t="s">
+        <v>711</v>
+      </c>
+      <c r="L92" t="s">
+        <v>712</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>713</v>
+      </c>
+      <c r="O92" t="s">
+        <v>78</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>688</v>
+      </c>
+      <c r="X92" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>715</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>716</v>
+      </c>
+      <c r="J93" t="s">
+        <v>717</v>
+      </c>
+      <c r="K93" t="s">
+        <v>718</v>
+      </c>
+      <c r="L93" t="s">
+        <v>719</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>720</v>
+      </c>
+      <c r="O93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>721</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>722</v>
+      </c>
+      <c r="J94" t="s">
+        <v>723</v>
+      </c>
+      <c r="K94" t="s">
+        <v>724</v>
+      </c>
+      <c r="L94" t="s">
+        <v>725</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>726</v>
+      </c>
+      <c r="O94" t="s">
+        <v>78</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>727</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>728</v>
+      </c>
+      <c r="J95" t="s">
+        <v>729</v>
+      </c>
+      <c r="K95" t="s">
+        <v>730</v>
+      </c>
+      <c r="L95" t="s">
+        <v>731</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>732</v>
+      </c>
+      <c r="O95" t="s">
+        <v>85</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>733</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>734</v>
+      </c>
+      <c r="J96" t="s">
+        <v>735</v>
+      </c>
+      <c r="K96" t="s">
+        <v>736</v>
+      </c>
+      <c r="L96" t="s">
+        <v>737</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>732</v>
+      </c>
+      <c r="O96" t="s">
+        <v>85</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>738</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>739</v>
+      </c>
+      <c r="J97" t="s">
+        <v>740</v>
+      </c>
+      <c r="K97" t="s">
+        <v>741</v>
+      </c>
+      <c r="L97" t="s">
+        <v>742</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>732</v>
+      </c>
+      <c r="O97" t="s">
+        <v>78</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>743</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>744</v>
+      </c>
+      <c r="J98" t="s">
+        <v>745</v>
+      </c>
+      <c r="K98" t="s">
+        <v>746</v>
+      </c>
+      <c r="L98" t="s">
+        <v>747</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>748</v>
+      </c>
+      <c r="O98" t="s">
+        <v>85</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>750</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>751</v>
+      </c>
+      <c r="J99" t="s">
+        <v>752</v>
+      </c>
+      <c r="K99" t="s">
+        <v>753</v>
+      </c>
+      <c r="L99" t="s">
+        <v>754</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>755</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>757</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>758</v>
+      </c>
+      <c r="J100" t="s">
+        <v>759</v>
+      </c>
+      <c r="K100" t="s">
+        <v>760</v>
+      </c>
+      <c r="L100" t="s">
+        <v>761</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>762</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59467</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>764</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>765</v>
+      </c>
+      <c r="J101" t="s">
+        <v>766</v>
+      </c>
+      <c r="K101" t="s">
+        <v>767</v>
+      </c>
+      <c r="L101" t="s">
+        <v>768</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>769</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
